--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -540,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -550,9 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -587,34 +585,34 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="P2" s="4"/>
@@ -671,7 +669,7 @@
         <v>69.5</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D38" si="1">1.1*25</f>
+        <f t="shared" ref="D4:D34" si="1">1.1*25</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E4">

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -27,30 +27,12 @@
     <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
-    <t>Тариф</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Площадь кв.м.</t>
-  </si>
-  <si>
-    <t>Сумма руб.</t>
-  </si>
-  <si>
-    <t>Просрочка дней</t>
-  </si>
-  <si>
-    <t>Штраф руб.</t>
-  </si>
-  <si>
-    <t>Итого руб.</t>
-  </si>
-  <si>
     <t>Аминова</t>
   </si>
   <si>
@@ -162,16 +144,34 @@
     <t>Пени за 1 день</t>
   </si>
   <si>
-    <t>Общая сумма руб.</t>
-  </si>
-  <si>
-    <t>Средняя площадь кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок  просрочки дней</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате руб.</t>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Тариф, руб/кв.м</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
   </si>
 </sst>
 </file>
@@ -548,19 +548,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="16.375" customWidth="1"/>
     <col min="9" max="9" width="14.25" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
@@ -589,31 +591,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="P2" s="4"/>
     </row>
@@ -622,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>70</v>
@@ -662,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <f>C3-0.5</f>
@@ -703,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C22" si="5">C4-0.5</f>
@@ -744,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <f t="shared" si="5"/>
@@ -785,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <f t="shared" si="5"/>
@@ -826,7 +828,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <f t="shared" si="5"/>
@@ -867,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <f t="shared" si="5"/>
@@ -908,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <f t="shared" si="5"/>
@@ -949,7 +951,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <f t="shared" si="5"/>
@@ -990,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <f t="shared" si="5"/>
@@ -1031,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <f t="shared" si="5"/>
@@ -1072,7 +1074,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <f t="shared" si="5"/>
@@ -1113,7 +1115,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <f t="shared" si="5"/>
@@ -1154,7 +1156,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <f t="shared" si="5"/>
@@ -1195,7 +1197,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <f t="shared" si="5"/>
@@ -1236,7 +1238,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <f t="shared" si="5"/>
@@ -1277,7 +1279,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <f t="shared" si="5"/>
@@ -1318,7 +1320,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <f t="shared" si="5"/>
@@ -1359,7 +1361,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <f t="shared" si="5"/>
@@ -1400,7 +1402,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <f t="shared" si="5"/>
@@ -1441,7 +1443,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>71</v>
@@ -1481,7 +1483,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <f>C23-0.5</f>
@@ -1522,7 +1524,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <f t="shared" ref="C25:C38" si="6">C24-0.5</f>
@@ -1563,7 +1565,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <f t="shared" si="6"/>
@@ -1604,7 +1606,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <f t="shared" si="6"/>
@@ -1645,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <f t="shared" si="6"/>
@@ -1686,7 +1688,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <f t="shared" si="6"/>
@@ -1727,7 +1729,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <f t="shared" si="6"/>
@@ -1768,7 +1770,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <f t="shared" si="6"/>
@@ -1809,7 +1811,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <f t="shared" si="6"/>
@@ -1850,7 +1852,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <f t="shared" si="6"/>
@@ -1891,7 +1893,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <f t="shared" si="6"/>
@@ -1932,7 +1934,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <f t="shared" si="6"/>
@@ -1973,7 +1975,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <f t="shared" si="6"/>
@@ -2014,7 +2016,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <f t="shared" si="6"/>
@@ -2055,7 +2057,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C38">
         <f t="shared" si="6"/>
@@ -2111,7 +2113,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <f>MAX(H:H)</f>
@@ -2120,12 +2122,15 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <f>MAX(K:K)</f>
         <v>2072.5</v>
       </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -150,9 +150,6 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Тариф, руб/кв.м</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
   </si>
 </sst>
 </file>
@@ -551,22 +551,22 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B43"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.75" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="16.375" customWidth="1"/>
     <col min="9" max="9" width="14.25" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="12.375" customWidth="1"/>
     <col min="14" max="14" width="15.25" customWidth="1"/>
@@ -594,7 +594,7 @@
         <v>41</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>42</v>
@@ -606,21 +606,21 @@
         <v>3</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -660,7 +660,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -701,7 +701,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -742,7 +742,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -783,7 +783,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -824,7 +824,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -865,7 +865,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -906,7 +906,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -947,7 +947,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -988,7 +988,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1029,7 +1029,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -1070,7 +1070,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -1111,7 +1111,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1193,7 +1193,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1234,7 +1234,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -1275,7 +1275,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -1316,7 +1316,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -1357,7 +1357,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -1398,7 +1398,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -1439,7 +1439,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -1479,7 +1479,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -1520,7 +1520,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -1561,7 +1561,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -1602,7 +1602,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -1643,7 +1643,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -1684,7 +1684,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -1725,7 +1725,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -1766,7 +1766,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -1807,7 +1807,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -1848,7 +1848,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -1889,7 +1889,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -1930,7 +1930,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -1971,7 +1971,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -2012,7 +2012,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -2053,7 +2053,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -2095,7 +2095,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40">
         <f>INT(SUM(E:E))</f>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42">
         <f>MAX(H:H)</f>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <f>MAX(K:K)</f>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,6 +233,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,7 +543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -550,9 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -620,7 +621,7 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -660,7 +661,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -701,7 +702,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -742,7 +743,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -783,7 +784,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -824,7 +825,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -865,7 +866,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -906,7 +907,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -947,7 +948,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -988,7 +989,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1029,7 +1030,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -1070,7 +1071,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -1111,7 +1112,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1152,7 +1153,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1193,7 +1194,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1234,7 +1235,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -1275,7 +1276,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -1316,7 +1317,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -1357,7 +1358,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -1398,7 +1399,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -1439,7 +1440,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -1479,7 +1480,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -1520,7 +1521,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -1561,7 +1562,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -1602,7 +1603,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -1643,7 +1644,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -1684,7 +1685,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -1725,7 +1726,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -1766,7 +1767,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -1807,7 +1808,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -1848,7 +1849,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -1889,7 +1890,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -1930,7 +1931,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -1971,7 +1972,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -2012,7 +2013,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="6">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -2053,7 +2054,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="6">
         <v>36</v>
       </c>
       <c r="B38" t="s">

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -223,9 +223,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -235,7 +232,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,11 +553,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="6" customWidth="1"/>
     <col min="2" max="2" width="33.75" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
@@ -576,49 +578,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="6">
         <v>25</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="4"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -638,10 +640,10 @@
         <f t="shared" ref="E3:E38" si="0">C3*D3</f>
         <v>1925.0000000000002</v>
       </c>
-      <c r="F3" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="2">
         <v>44805</v>
       </c>
       <c r="H3">
@@ -679,10 +681,10 @@
         <f t="shared" si="0"/>
         <v>1911.2500000000002</v>
       </c>
-      <c r="F4" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="2">
         <v>44806</v>
       </c>
       <c r="H4">
@@ -720,10 +722,10 @@
         <f t="shared" si="0"/>
         <v>1897.5000000000002</v>
       </c>
-      <c r="F5" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="2">
         <v>44807</v>
       </c>
       <c r="H5">
@@ -761,10 +763,10 @@
         <f t="shared" si="0"/>
         <v>1883.7500000000002</v>
       </c>
-      <c r="F6" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="2">
         <v>44808</v>
       </c>
       <c r="H6">
@@ -802,10 +804,10 @@
         <f t="shared" si="0"/>
         <v>1870.0000000000002</v>
       </c>
-      <c r="F7" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="2">
         <v>44809</v>
       </c>
       <c r="H7">
@@ -843,10 +845,10 @@
         <f t="shared" si="0"/>
         <v>1856.2500000000002</v>
       </c>
-      <c r="F8" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="2">
         <v>44810</v>
       </c>
       <c r="H8">
@@ -884,10 +886,10 @@
         <f t="shared" si="0"/>
         <v>1842.5000000000002</v>
       </c>
-      <c r="F9" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="2">
         <v>44811</v>
       </c>
       <c r="H9">
@@ -925,10 +927,10 @@
         <f t="shared" si="0"/>
         <v>1828.7500000000002</v>
       </c>
-      <c r="F10" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="2">
         <v>44812</v>
       </c>
       <c r="H10">
@@ -966,10 +968,10 @@
         <f t="shared" si="0"/>
         <v>1815.0000000000002</v>
       </c>
-      <c r="F11" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="2">
         <v>44813</v>
       </c>
       <c r="H11">
@@ -1007,10 +1009,10 @@
         <f t="shared" si="0"/>
         <v>1801.2500000000002</v>
       </c>
-      <c r="F12" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="2">
         <v>44814</v>
       </c>
       <c r="H12">
@@ -1048,10 +1050,10 @@
         <f t="shared" si="0"/>
         <v>1787.5000000000002</v>
       </c>
-      <c r="F13" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="2">
         <v>44815</v>
       </c>
       <c r="H13">
@@ -1089,10 +1091,10 @@
         <f t="shared" si="0"/>
         <v>1773.7500000000002</v>
       </c>
-      <c r="F14" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="2">
         <v>44816</v>
       </c>
       <c r="H14">
@@ -1130,10 +1132,10 @@
         <f t="shared" si="0"/>
         <v>1760.0000000000002</v>
       </c>
-      <c r="F15" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="2">
         <v>44817</v>
       </c>
       <c r="H15">
@@ -1171,10 +1173,10 @@
         <f t="shared" si="0"/>
         <v>1746.2500000000002</v>
       </c>
-      <c r="F16" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="2">
         <v>44818</v>
       </c>
       <c r="H16">
@@ -1212,10 +1214,10 @@
         <f t="shared" si="0"/>
         <v>1732.5000000000002</v>
       </c>
-      <c r="F17" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="2">
         <v>44819</v>
       </c>
       <c r="H17">
@@ -1253,10 +1255,10 @@
         <f t="shared" si="0"/>
         <v>1718.7500000000002</v>
       </c>
-      <c r="F18" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="2">
         <v>44820</v>
       </c>
       <c r="H18">
@@ -1294,10 +1296,10 @@
         <f t="shared" si="0"/>
         <v>1705.0000000000002</v>
       </c>
-      <c r="F19" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="2">
         <v>44821</v>
       </c>
       <c r="H19">
@@ -1335,10 +1337,10 @@
         <f t="shared" si="0"/>
         <v>1691.2500000000002</v>
       </c>
-      <c r="F20" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="2">
         <v>44822</v>
       </c>
       <c r="H20">
@@ -1376,10 +1378,10 @@
         <f t="shared" si="0"/>
         <v>1677.5000000000002</v>
       </c>
-      <c r="F21" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="2">
         <v>44823</v>
       </c>
       <c r="H21">
@@ -1417,10 +1419,10 @@
         <f t="shared" si="0"/>
         <v>1663.7500000000002</v>
       </c>
-      <c r="F22" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="2">
         <v>44824</v>
       </c>
       <c r="H22">
@@ -1457,10 +1459,10 @@
         <f t="shared" si="0"/>
         <v>1952.5000000000002</v>
       </c>
-      <c r="F23" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="2">
         <v>44825</v>
       </c>
       <c r="H23">
@@ -1498,10 +1500,10 @@
         <f t="shared" si="0"/>
         <v>1938.7500000000002</v>
       </c>
-      <c r="F24" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="2">
         <v>44826</v>
       </c>
       <c r="H24">
@@ -1539,10 +1541,10 @@
         <f t="shared" si="0"/>
         <v>1925.0000000000002</v>
       </c>
-      <c r="F25" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="2">
         <v>44827</v>
       </c>
       <c r="H25">
@@ -1580,10 +1582,10 @@
         <f t="shared" si="0"/>
         <v>1911.2500000000002</v>
       </c>
-      <c r="F26" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="2">
         <v>44828</v>
       </c>
       <c r="H26">
@@ -1621,10 +1623,10 @@
         <f t="shared" si="0"/>
         <v>1897.5000000000002</v>
       </c>
-      <c r="F27" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="2">
         <v>44829</v>
       </c>
       <c r="H27">
@@ -1662,10 +1664,10 @@
         <f t="shared" si="0"/>
         <v>1883.7500000000002</v>
       </c>
-      <c r="F28" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="2">
         <v>44830</v>
       </c>
       <c r="H28">
@@ -1703,10 +1705,10 @@
         <f t="shared" si="0"/>
         <v>1870.0000000000002</v>
       </c>
-      <c r="F29" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="2">
         <v>44831</v>
       </c>
       <c r="H29">
@@ -1744,10 +1746,10 @@
         <f t="shared" si="0"/>
         <v>1856.2500000000002</v>
       </c>
-      <c r="F30" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="2">
         <v>44832</v>
       </c>
       <c r="H30">
@@ -1785,10 +1787,10 @@
         <f t="shared" si="0"/>
         <v>1842.5000000000002</v>
       </c>
-      <c r="F31" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F31" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="2">
         <v>44833</v>
       </c>
       <c r="H31">
@@ -1826,10 +1828,10 @@
         <f t="shared" si="0"/>
         <v>1828.7500000000002</v>
       </c>
-      <c r="F32" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="2">
         <v>44834</v>
       </c>
       <c r="H32">
@@ -1867,10 +1869,10 @@
         <f t="shared" si="0"/>
         <v>1815.0000000000002</v>
       </c>
-      <c r="F33" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="2">
         <v>44835</v>
       </c>
       <c r="H33">
@@ -1908,10 +1910,10 @@
         <f t="shared" si="0"/>
         <v>1801.2500000000002</v>
       </c>
-      <c r="F34" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="F34" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="2">
         <v>44836</v>
       </c>
       <c r="H34">
@@ -1949,10 +1951,10 @@
         <f t="shared" si="0"/>
         <v>893.75000000000011</v>
       </c>
-      <c r="F35" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="F35" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="2">
         <v>44837</v>
       </c>
       <c r="H35">
@@ -1990,10 +1992,10 @@
         <f t="shared" si="0"/>
         <v>886.87500000000011</v>
       </c>
-      <c r="F36" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="F36" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="2">
         <v>44838</v>
       </c>
       <c r="H36">
@@ -2031,10 +2033,10 @@
         <f t="shared" si="0"/>
         <v>880.00000000000011</v>
       </c>
-      <c r="F37" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="F37" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="2">
         <v>44839</v>
       </c>
       <c r="H37">
@@ -2072,10 +2074,10 @@
         <f t="shared" si="0"/>
         <v>873.12500000000011</v>
       </c>
-      <c r="F38" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="F38" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="2">
         <v>44840</v>
       </c>
       <c r="H38">
@@ -2095,7 +2097,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C40">
@@ -2104,7 +2106,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C41">
@@ -2113,7 +2115,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C42">
@@ -2122,7 +2124,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C43">
@@ -2131,7 +2133,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
+      <c r="B47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,10 +232,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -554,12 +551,12 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A38"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15" style="5" customWidth="1"/>
     <col min="2" max="2" width="33.75" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
@@ -578,7 +575,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
+      <c r="A1" s="5">
         <v>25</v>
       </c>
       <c r="M1" s="1"/>
@@ -623,7 +620,7 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -663,7 +660,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -704,7 +701,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -745,7 +742,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -786,7 +783,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -827,7 +824,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -868,7 +865,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -909,7 +906,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -950,7 +947,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -991,7 +988,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1032,7 +1029,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -1073,7 +1070,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -1114,7 +1111,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1155,7 +1152,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1196,7 +1193,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1237,7 +1234,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -1278,7 +1275,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -1319,7 +1316,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -1360,7 +1357,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -1401,7 +1398,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -1442,7 +1439,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -1482,7 +1479,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -1523,7 +1520,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -1564,7 +1561,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -1605,7 +1602,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -1646,7 +1643,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -1687,7 +1684,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -1728,7 +1725,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -1769,7 +1766,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -1810,7 +1807,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -1851,7 +1848,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -1892,7 +1889,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -1933,7 +1930,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -1974,7 +1971,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -2015,7 +2012,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -2056,7 +2053,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>36</v>
       </c>
       <c r="B38" t="s">

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -197,7 +197,7 @@
       <sz val="12"/>
       <color rgb="FF282C34"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -221,19 +221,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -540,7 +544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -551,12 +555,12 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15" style="3" customWidth="1"/>
     <col min="2" max="2" width="33.75" customWidth="1"/>
     <col min="3" max="3" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
@@ -575,1562 +579,1621 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
+      <c r="A1" s="4">
         <v>25</v>
       </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="3"/>
+      <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>70</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <f>1.1*25</f>
         <v>27.500000000000004</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E38" si="0">C3*D3</f>
         <v>1925.0000000000002</v>
       </c>
-      <c r="F3" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="7">
         <v>44805</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <f>IF(G3&lt;F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="5">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="5">
         <f>E3+J3</f>
         <v>1925.0000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <f t="shared" ref="D4:D34" si="1">1.1*25</f>
         <v>27.500000000000004</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>1911.2500000000002</v>
       </c>
-      <c r="F4" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="7">
         <v>44806</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <f t="shared" ref="H4:H38" si="2">IF(G4&lt;F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="5">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5">
         <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>1911.2500000000002</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <f t="shared" ref="C5:C22" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>1897.5000000000002</v>
       </c>
-      <c r="F5" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="7">
         <v>44807</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="5">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <f t="shared" si="4"/>
         <v>1897.5000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>1883.7500000000002</v>
       </c>
-      <c r="F6" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="7">
         <v>44808</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="5">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="5">
         <f t="shared" si="4"/>
         <v>1883.7500000000002</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>1870.0000000000002</v>
       </c>
-      <c r="F7" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="7">
         <v>44809</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="5">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <f t="shared" si="4"/>
         <v>1870.0000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>1856.2500000000002</v>
       </c>
-      <c r="F8" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="7">
         <v>44810</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="5">
+        <v>10</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <f t="shared" si="4"/>
         <v>1856.2500000000002</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>1842.5000000000002</v>
       </c>
-      <c r="F9" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="7">
         <v>44811</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
+      <c r="I9" s="5">
+        <v>10</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="5">
         <f t="shared" si="4"/>
         <v>1842.5000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>1828.7500000000002</v>
       </c>
-      <c r="F10" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="7">
         <v>44812</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
+      <c r="I10" s="5">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="5">
         <f t="shared" si="4"/>
         <v>1828.7500000000002</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>1815.0000000000002</v>
       </c>
-      <c r="F11" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="2">
-        <v>44813</v>
-      </c>
-      <c r="H11">
+      <c r="F11" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="7">
+        <v>44813</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
+      <c r="I11" s="5">
+        <v>10</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="5">
         <f t="shared" si="4"/>
         <v>1815.0000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>1801.2500000000002</v>
       </c>
-      <c r="F12" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="7">
         <v>44814</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12">
+      <c r="I12" s="5">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="5">
         <f t="shared" si="4"/>
         <v>1811.2500000000002</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>1787.5000000000002</v>
       </c>
-      <c r="F13" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="7">
         <v>44815</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="J13">
+      <c r="I13" s="5">
+        <v>10</v>
+      </c>
+      <c r="J13" s="5">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <f t="shared" si="4"/>
         <v>1807.5000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>1773.7500000000002</v>
       </c>
-      <c r="F14" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="7">
         <v>44816</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14">
+      <c r="I14" s="5">
+        <v>10</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="5">
         <f t="shared" si="4"/>
         <v>1803.7500000000002</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>1760.0000000000002</v>
       </c>
-      <c r="F15" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="7">
         <v>44817</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15">
+      <c r="I15" s="5">
+        <v>10</v>
+      </c>
+      <c r="J15" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="5">
         <f t="shared" si="4"/>
         <v>1800.0000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>1746.2500000000002</v>
       </c>
-      <c r="F16" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="7">
         <v>44818</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16">
-        <v>10</v>
-      </c>
-      <c r="J16">
+      <c r="I16" s="5">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="5">
         <f t="shared" si="4"/>
         <v>1796.2500000000002</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>1732.5000000000002</v>
       </c>
-      <c r="F17" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="7">
         <v>44819</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-      <c r="J17">
+      <c r="I17" s="5">
+        <v>10</v>
+      </c>
+      <c r="J17" s="5">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="5">
         <f t="shared" si="4"/>
         <v>1792.5000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>1718.7500000000002</v>
       </c>
-      <c r="F18" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="7">
         <v>44820</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
-      <c r="J18">
+      <c r="I18" s="5">
+        <v>10</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="5">
         <f t="shared" si="4"/>
         <v>1788.7500000000002</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>1705.0000000000002</v>
       </c>
-      <c r="F19" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="7">
         <v>44821</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19">
-        <v>10</v>
-      </c>
-      <c r="J19">
+      <c r="I19" s="5">
+        <v>10</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="5">
         <f t="shared" si="4"/>
         <v>1785.0000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>1691.2500000000002</v>
       </c>
-      <c r="F20" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="7">
         <v>44822</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
-      <c r="J20">
+      <c r="I20" s="5">
+        <v>10</v>
+      </c>
+      <c r="J20" s="5">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="5">
         <f t="shared" si="4"/>
         <v>1781.2500000000002</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>1677.5000000000002</v>
       </c>
-      <c r="F21" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F21" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="7">
         <v>44823</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
-      <c r="J21">
+      <c r="H21" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="5">
+        <v>10</v>
+      </c>
+      <c r="J21" s="5">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="5">
         <f t="shared" si="4"/>
         <v>1777.5000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>1663.7500000000002</v>
       </c>
-      <c r="F22" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="F22" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="7">
         <v>44824</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="5">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-      <c r="J22">
+      <c r="I22" s="5">
+        <v>10</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="5">
         <f t="shared" si="4"/>
         <v>1773.7500000000002</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>71</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E23" s="5">
         <f t="shared" si="0"/>
         <v>1952.5000000000002</v>
       </c>
-      <c r="F23" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="F23" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="7">
         <v>44825</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="5">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23">
+      <c r="I23" s="5">
+        <v>10</v>
+      </c>
+      <c r="J23" s="5">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="5">
         <f t="shared" si="4"/>
         <v>2072.5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <f>C23-0.5</f>
         <v>70.5</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E24" s="5">
         <f t="shared" si="0"/>
         <v>1938.7500000000002</v>
       </c>
-      <c r="F24" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="7">
         <v>44826</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="5">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24">
-        <v>10</v>
-      </c>
-      <c r="J24">
+      <c r="I24" s="5">
+        <v>10</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="5">
         <f t="shared" si="4"/>
         <v>2068.75</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <f t="shared" ref="C25:C38" si="6">C24-0.5</f>
         <v>70</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="0"/>
         <v>1925.0000000000002</v>
       </c>
-      <c r="F25" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="7">
         <v>44827</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25">
-        <v>10</v>
-      </c>
-      <c r="J25">
+      <c r="I25" s="5">
+        <v>10</v>
+      </c>
+      <c r="J25" s="5">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="5">
         <f t="shared" si="4"/>
         <v>2065</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <f t="shared" si="6"/>
         <v>69.5</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E26" s="5">
         <f t="shared" si="0"/>
         <v>1911.2500000000002</v>
       </c>
-      <c r="F26" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="F26" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="7">
         <v>44828</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26">
-        <v>10</v>
-      </c>
-      <c r="J26">
+      <c r="I26" s="5">
+        <v>10</v>
+      </c>
+      <c r="J26" s="5">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="5">
         <f t="shared" si="4"/>
         <v>2061.25</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E27" s="5">
         <f t="shared" si="0"/>
         <v>1897.5000000000002</v>
       </c>
-      <c r="F27" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="F27" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="7">
         <v>44829</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="5">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27">
-        <v>10</v>
-      </c>
-      <c r="J27">
+      <c r="I27" s="5">
+        <v>10</v>
+      </c>
+      <c r="J27" s="5">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="5">
         <f t="shared" si="4"/>
         <v>2057.5</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="0"/>
         <v>1883.7500000000002</v>
       </c>
-      <c r="F28" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="F28" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="7">
         <v>44830</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="5">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28">
-        <v>10</v>
-      </c>
-      <c r="J28">
+      <c r="I28" s="5">
+        <v>10</v>
+      </c>
+      <c r="J28" s="5">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="5">
         <f t="shared" si="4"/>
         <v>2053.75</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E29" s="5">
         <f t="shared" si="0"/>
         <v>1870.0000000000002</v>
       </c>
-      <c r="F29" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="F29" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="7">
         <v>44831</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="5">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29">
-        <v>10</v>
-      </c>
-      <c r="J29">
+      <c r="I29" s="5">
+        <v>10</v>
+      </c>
+      <c r="J29" s="5">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="5">
         <f t="shared" si="4"/>
         <v>2050</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E30" s="5">
         <f t="shared" si="0"/>
         <v>1856.2500000000002</v>
       </c>
-      <c r="F30" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="F30" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="7">
         <v>44832</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="5">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30">
-        <v>10</v>
-      </c>
-      <c r="J30">
+      <c r="I30" s="5">
+        <v>10</v>
+      </c>
+      <c r="J30" s="5">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="5">
         <f t="shared" si="4"/>
         <v>2046.2500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E31" s="5">
         <f t="shared" si="0"/>
         <v>1842.5000000000002</v>
       </c>
-      <c r="F31" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="F31" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="7">
         <v>44833</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31">
-        <v>10</v>
-      </c>
-      <c r="J31">
+      <c r="I31" s="5">
+        <v>10</v>
+      </c>
+      <c r="J31" s="5">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="5">
         <f t="shared" si="4"/>
         <v>2042.5000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E32" s="5">
         <f t="shared" si="0"/>
         <v>1828.7500000000002</v>
       </c>
-      <c r="F32" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="F32" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="7">
         <v>44834</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="5">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32">
-        <v>10</v>
-      </c>
-      <c r="J32">
+      <c r="I32" s="5">
+        <v>10</v>
+      </c>
+      <c r="J32" s="5">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="5">
         <f t="shared" si="4"/>
         <v>2038.7500000000002</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <f>1.1*25</f>
         <v>27.500000000000004</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="5">
         <f t="shared" si="0"/>
         <v>1815.0000000000002</v>
       </c>
-      <c r="F33" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="F33" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="7">
         <v>44835</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="5">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33">
-        <v>10</v>
-      </c>
-      <c r="J33">
+      <c r="I33" s="5">
+        <v>10</v>
+      </c>
+      <c r="J33" s="5">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="5">
         <f t="shared" si="4"/>
         <v>2035.0000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="5">
+        <f t="shared" si="1"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="E34" s="5">
         <f t="shared" si="0"/>
         <v>1801.2500000000002</v>
       </c>
-      <c r="F34" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="F34" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="7">
         <v>44836</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="5">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34">
-        <v>10</v>
-      </c>
-      <c r="J34">
+      <c r="I34" s="5">
+        <v>10</v>
+      </c>
+      <c r="J34" s="5">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="5">
         <f t="shared" si="4"/>
         <v>2031.2500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <f>1.1*25/2</f>
         <v>13.750000000000002</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="5">
         <f t="shared" si="0"/>
         <v>893.75000000000011</v>
       </c>
-      <c r="F35" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="F35" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="7">
         <v>44837</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="5">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35">
-        <v>10</v>
-      </c>
-      <c r="J35">
+      <c r="I35" s="5">
+        <v>10</v>
+      </c>
+      <c r="J35" s="5">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="5">
         <f t="shared" si="4"/>
         <v>1133.75</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5">
         <f t="shared" ref="D36:D38" si="7">1.1*25/2</f>
         <v>13.750000000000002</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="5">
         <f t="shared" si="0"/>
         <v>886.87500000000011</v>
       </c>
-      <c r="F36" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="F36" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="7">
         <v>44838</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36">
-        <v>10</v>
-      </c>
-      <c r="J36">
+      <c r="I36" s="5">
+        <v>10</v>
+      </c>
+      <c r="J36" s="5">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="5">
         <f t="shared" si="4"/>
         <v>1136.875</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <f t="shared" si="7"/>
         <v>13.750000000000002</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="5">
         <f t="shared" si="0"/>
         <v>880.00000000000011</v>
       </c>
-      <c r="F37" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="2">
+      <c r="F37" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="7">
         <v>44839</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="5">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37">
-        <v>10</v>
-      </c>
-      <c r="J37">
+      <c r="I37" s="5">
+        <v>10</v>
+      </c>
+      <c r="J37" s="5">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="5">
         <f t="shared" si="4"/>
         <v>1140</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <f t="shared" si="7"/>
         <v>13.750000000000002</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="5">
         <f t="shared" si="0"/>
         <v>873.12500000000011</v>
       </c>
-      <c r="F38" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="F38" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="7">
         <v>44840</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="5">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38">
-        <v>10</v>
-      </c>
-      <c r="J38">
+      <c r="I38" s="5">
+        <v>10</v>
+      </c>
+      <c r="J38" s="5">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="5">
         <f t="shared" si="4"/>
         <v>1143.125</v>
       </c>
     </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <f>INT(SUM(E:E))</f>
         <v>61943</v>
       </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <f>AVERAGE(C3:C38)</f>
         <v>66.138888888888886</v>
       </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <f>MAX(H:H)</f>
         <v>27</v>
       </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <f>MAX(K:K)</f>
         <v>2072.5</v>
       </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,10 +234,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -544,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -554,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,37 +601,37 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="P2" s="2"/>
@@ -651,10 +654,10 @@
         <f t="shared" ref="E3:E38" si="0">C3*D3</f>
         <v>1925.0000000000002</v>
       </c>
-      <c r="F3" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F3" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="6">
         <v>44805</v>
       </c>
       <c r="H3" s="5">
@@ -692,10 +695,10 @@
         <f t="shared" si="0"/>
         <v>1911.2500000000002</v>
       </c>
-      <c r="F4" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="6">
         <v>44806</v>
       </c>
       <c r="H4" s="5">
@@ -733,10 +736,10 @@
         <f t="shared" si="0"/>
         <v>1897.5000000000002</v>
       </c>
-      <c r="F5" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="6">
         <v>44807</v>
       </c>
       <c r="H5" s="5">
@@ -774,10 +777,10 @@
         <f t="shared" si="0"/>
         <v>1883.7500000000002</v>
       </c>
-      <c r="F6" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="6">
         <v>44808</v>
       </c>
       <c r="H6" s="5">
@@ -815,10 +818,10 @@
         <f t="shared" si="0"/>
         <v>1870.0000000000002</v>
       </c>
-      <c r="F7" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="6">
         <v>44809</v>
       </c>
       <c r="H7" s="5">
@@ -856,10 +859,10 @@
         <f t="shared" si="0"/>
         <v>1856.2500000000002</v>
       </c>
-      <c r="F8" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="6">
         <v>44810</v>
       </c>
       <c r="H8" s="5">
@@ -897,10 +900,10 @@
         <f t="shared" si="0"/>
         <v>1842.5000000000002</v>
       </c>
-      <c r="F9" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="6">
         <v>44811</v>
       </c>
       <c r="H9" s="5">
@@ -938,10 +941,10 @@
         <f t="shared" si="0"/>
         <v>1828.7500000000002</v>
       </c>
-      <c r="F10" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="6">
         <v>44812</v>
       </c>
       <c r="H10" s="5">
@@ -979,10 +982,10 @@
         <f t="shared" si="0"/>
         <v>1815.0000000000002</v>
       </c>
-      <c r="F11" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="6">
         <v>44813</v>
       </c>
       <c r="H11" s="5">
@@ -1020,10 +1023,10 @@
         <f t="shared" si="0"/>
         <v>1801.2500000000002</v>
       </c>
-      <c r="F12" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="6">
         <v>44814</v>
       </c>
       <c r="H12" s="5">
@@ -1061,10 +1064,10 @@
         <f t="shared" si="0"/>
         <v>1787.5000000000002</v>
       </c>
-      <c r="F13" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="6">
         <v>44815</v>
       </c>
       <c r="H13" s="5">
@@ -1102,10 +1105,10 @@
         <f t="shared" si="0"/>
         <v>1773.7500000000002</v>
       </c>
-      <c r="F14" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="6">
         <v>44816</v>
       </c>
       <c r="H14" s="5">
@@ -1143,10 +1146,10 @@
         <f t="shared" si="0"/>
         <v>1760.0000000000002</v>
       </c>
-      <c r="F15" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="6">
         <v>44817</v>
       </c>
       <c r="H15" s="5">
@@ -1184,10 +1187,10 @@
         <f t="shared" si="0"/>
         <v>1746.2500000000002</v>
       </c>
-      <c r="F16" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="6">
         <v>44818</v>
       </c>
       <c r="H16" s="5">
@@ -1225,10 +1228,10 @@
         <f t="shared" si="0"/>
         <v>1732.5000000000002</v>
       </c>
-      <c r="F17" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="6">
         <v>44819</v>
       </c>
       <c r="H17" s="5">
@@ -1266,10 +1269,10 @@
         <f t="shared" si="0"/>
         <v>1718.7500000000002</v>
       </c>
-      <c r="F18" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="6">
         <v>44820</v>
       </c>
       <c r="H18" s="5">
@@ -1307,10 +1310,10 @@
         <f t="shared" si="0"/>
         <v>1705.0000000000002</v>
       </c>
-      <c r="F19" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="F19" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="6">
         <v>44821</v>
       </c>
       <c r="H19" s="5">
@@ -1348,10 +1351,10 @@
         <f t="shared" si="0"/>
         <v>1691.2500000000002</v>
       </c>
-      <c r="F20" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="F20" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="6">
         <v>44822</v>
       </c>
       <c r="H20" s="5">
@@ -1389,10 +1392,10 @@
         <f t="shared" si="0"/>
         <v>1677.5000000000002</v>
       </c>
-      <c r="F21" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="F21" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="6">
         <v>44823</v>
       </c>
       <c r="H21" s="5">
@@ -1430,10 +1433,10 @@
         <f t="shared" si="0"/>
         <v>1663.7500000000002</v>
       </c>
-      <c r="F22" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="F22" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="6">
         <v>44824</v>
       </c>
       <c r="H22" s="5">
@@ -1470,10 +1473,10 @@
         <f t="shared" si="0"/>
         <v>1952.5000000000002</v>
       </c>
-      <c r="F23" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="F23" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="6">
         <v>44825</v>
       </c>
       <c r="H23" s="5">
@@ -1511,10 +1514,10 @@
         <f t="shared" si="0"/>
         <v>1938.7500000000002</v>
       </c>
-      <c r="F24" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="F24" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="6">
         <v>44826</v>
       </c>
       <c r="H24" s="5">
@@ -1552,10 +1555,10 @@
         <f t="shared" si="0"/>
         <v>1925.0000000000002</v>
       </c>
-      <c r="F25" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="F25" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="6">
         <v>44827</v>
       </c>
       <c r="H25" s="5">
@@ -1593,10 +1596,10 @@
         <f t="shared" si="0"/>
         <v>1911.2500000000002</v>
       </c>
-      <c r="F26" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="F26" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="6">
         <v>44828</v>
       </c>
       <c r="H26" s="5">
@@ -1634,10 +1637,10 @@
         <f t="shared" si="0"/>
         <v>1897.5000000000002</v>
       </c>
-      <c r="F27" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="F27" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="6">
         <v>44829</v>
       </c>
       <c r="H27" s="5">
@@ -1675,10 +1678,10 @@
         <f t="shared" si="0"/>
         <v>1883.7500000000002</v>
       </c>
-      <c r="F28" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="F28" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="6">
         <v>44830</v>
       </c>
       <c r="H28" s="5">
@@ -1716,10 +1719,10 @@
         <f t="shared" si="0"/>
         <v>1870.0000000000002</v>
       </c>
-      <c r="F29" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="7">
+      <c r="F29" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="6">
         <v>44831</v>
       </c>
       <c r="H29" s="5">
@@ -1757,10 +1760,10 @@
         <f t="shared" si="0"/>
         <v>1856.2500000000002</v>
       </c>
-      <c r="F30" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="F30" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="6">
         <v>44832</v>
       </c>
       <c r="H30" s="5">
@@ -1798,10 +1801,10 @@
         <f t="shared" si="0"/>
         <v>1842.5000000000002</v>
       </c>
-      <c r="F31" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="F31" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="6">
         <v>44833</v>
       </c>
       <c r="H31" s="5">
@@ -1839,10 +1842,10 @@
         <f t="shared" si="0"/>
         <v>1828.7500000000002</v>
       </c>
-      <c r="F32" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="7">
+      <c r="F32" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="6">
         <v>44834</v>
       </c>
       <c r="H32" s="5">
@@ -1880,10 +1883,10 @@
         <f t="shared" si="0"/>
         <v>1815.0000000000002</v>
       </c>
-      <c r="F33" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="F33" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="6">
         <v>44835</v>
       </c>
       <c r="H33" s="5">
@@ -1921,10 +1924,10 @@
         <f t="shared" si="0"/>
         <v>1801.2500000000002</v>
       </c>
-      <c r="F34" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="F34" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="6">
         <v>44836</v>
       </c>
       <c r="H34" s="5">
@@ -1962,10 +1965,10 @@
         <f t="shared" si="0"/>
         <v>893.75000000000011</v>
       </c>
-      <c r="F35" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="F35" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="6">
         <v>44837</v>
       </c>
       <c r="H35" s="5">
@@ -2003,10 +2006,10 @@
         <f t="shared" si="0"/>
         <v>886.87500000000011</v>
       </c>
-      <c r="F36" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="7">
+      <c r="F36" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="6">
         <v>44838</v>
       </c>
       <c r="H36" s="5">
@@ -2044,10 +2047,10 @@
         <f t="shared" si="0"/>
         <v>880.00000000000011</v>
       </c>
-      <c r="F37" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="7">
+      <c r="F37" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="6">
         <v>44839</v>
       </c>
       <c r="H37" s="5">
@@ -2085,10 +2088,10 @@
         <f t="shared" si="0"/>
         <v>873.12500000000011</v>
       </c>
-      <c r="F38" s="7">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="7">
+      <c r="F38" s="6">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="6">
         <v>44840</v>
       </c>
       <c r="H38" s="5">
@@ -2122,7 +2125,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="5">
@@ -2140,7 +2143,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="5">
@@ -2158,7 +2161,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="5">
@@ -2176,7 +2179,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="5">

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -547,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -547,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +558,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -678,6 +678,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -719,13 +720,14 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C22" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C22" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="5">
@@ -760,13 +762,14 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="5">
@@ -801,13 +804,14 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="5">
@@ -842,13 +846,14 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="5">
@@ -883,13 +888,14 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="5">
@@ -924,13 +930,14 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="5">
@@ -965,13 +972,14 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="5">
@@ -1006,13 +1014,14 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="5">
@@ -1047,13 +1056,14 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="5">
@@ -1088,13 +1098,14 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="5">
@@ -1129,13 +1140,14 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="5">
@@ -1170,13 +1182,14 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="5">
@@ -1211,13 +1224,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="5">
@@ -1252,13 +1266,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="5">
@@ -1293,13 +1308,14 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="5">
@@ -1334,13 +1350,14 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="5">
@@ -1375,13 +1392,14 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="5">
@@ -1416,13 +1434,14 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="5">
@@ -1457,6 +1476,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1497,6 +1517,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1538,13 +1559,14 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" ref="C25:C38" si="6">C24-0.5</f>
+        <f t="shared" ref="C25:C38" si="7">C24-0.5</f>
         <v>70</v>
       </c>
       <c r="D25" s="5">
@@ -1579,13 +1601,14 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>69.5</v>
       </c>
       <c r="D26" s="5">
@@ -1620,13 +1643,14 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="D27" s="5">
@@ -1661,13 +1685,14 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>68.5</v>
       </c>
       <c r="D28" s="5">
@@ -1702,13 +1727,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="D29" s="5">
@@ -1743,13 +1769,14 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>67.5</v>
       </c>
       <c r="D30" s="5">
@@ -1784,13 +1811,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="D31" s="5">
@@ -1825,13 +1853,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>66.5</v>
       </c>
       <c r="D32" s="5">
@@ -1866,13 +1895,14 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="D33" s="5">
@@ -1907,13 +1937,14 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65.5</v>
       </c>
       <c r="D34" s="5">
@@ -1948,13 +1979,14 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="D35" s="5">
@@ -1989,17 +2021,18 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64.5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" ref="D36:D38" si="7">1.1*25/2</f>
+        <f t="shared" ref="D36:D38" si="8">1.1*25/2</f>
         <v>13.750000000000002</v>
       </c>
       <c r="E36" s="5">
@@ -2030,17 +2063,18 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.750000000000002</v>
       </c>
       <c r="E37" s="5">
@@ -2071,17 +2105,18 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63.5</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.750000000000002</v>
       </c>
       <c r="E38" s="5">

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -24,15 +24,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
     <t>Аминова</t>
   </si>
   <si>
@@ -172,6 +163,15 @@
   </si>
   <si>
     <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Срок оплаты, день</t>
+  </si>
+  <si>
+    <t>Дата оплаты, день</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +558,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -568,8 +568,8 @@
     <col min="3" max="3" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="16.375" customWidth="1"/>
     <col min="9" max="9" width="14.25" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="P2" s="2"/>
     </row>
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5">
         <v>70</v>
@@ -682,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5">
         <f>C3-0.5</f>
@@ -724,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:C22" si="6">C4-0.5</f>
@@ -766,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="6"/>
@@ -808,7 +808,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="6"/>
@@ -850,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="6"/>
@@ -892,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="6"/>
@@ -934,7 +934,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="6"/>
@@ -976,7 +976,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="6"/>
@@ -1018,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="6"/>
@@ -1060,7 +1060,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="6"/>
@@ -1102,7 +1102,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="6"/>
@@ -1144,7 +1144,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="6"/>
@@ -1186,7 +1186,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="6"/>
@@ -1228,7 +1228,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="6"/>
@@ -1270,7 +1270,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="6"/>
@@ -1312,7 +1312,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="6"/>
@@ -1354,7 +1354,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="6"/>
@@ -1396,7 +1396,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="6"/>
@@ -1438,7 +1438,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="6"/>
@@ -1480,7 +1480,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C23" s="5">
         <v>71</v>
@@ -1521,7 +1521,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24" s="5">
         <f>C23-0.5</f>
@@ -1563,7 +1563,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" ref="C25:C38" si="7">C24-0.5</f>
@@ -1605,7 +1605,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="7"/>
@@ -1647,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="7"/>
@@ -1689,7 +1689,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="7"/>
@@ -1731,7 +1731,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="7"/>
@@ -1773,7 +1773,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="7"/>
@@ -1815,7 +1815,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="7"/>
@@ -1857,7 +1857,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="7"/>
@@ -1899,7 +1899,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="7"/>
@@ -1941,7 +1941,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" si="7"/>
@@ -1983,7 +1983,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="7"/>
@@ -2025,7 +2025,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="7"/>
@@ -2067,7 +2067,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="7"/>
@@ -2109,7 +2109,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="7"/>
@@ -2161,7 +2161,7 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C40" s="5">
         <f>INT(SUM(E:E))</f>
@@ -2179,7 +2179,7 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C41" s="5">
         <f>AVERAGE(C3:C38)</f>
@@ -2197,7 +2197,7 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C42" s="5">
         <f>MAX(H:H)</f>
@@ -2215,7 +2215,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C43" s="5">
         <f>MAX(K:K)</f>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -132,9 +132,6 @@
     <t>Куропаткин 16</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +558,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -571,7 +571,7 @@
     <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="11.75" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="P2" s="2"/>
     </row>
@@ -2161,7 +2161,7 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="5">
         <f>INT(SUM(E:E))</f>
@@ -2179,7 +2179,7 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="5">
         <f>AVERAGE(C3:C38)</f>
@@ -2197,7 +2197,7 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="5">
         <f>MAX(H:H)</f>
@@ -2215,7 +2215,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="5">
         <f>MAX(K:K)</f>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -162,16 +162,16 @@
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
-    <t>Срок оплаты, день</t>
-  </si>
-  <si>
-    <t>Дата оплаты, день</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
-    <t>Пени за 1 день, руб.</t>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Пени за 1 день</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +558,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>37</v>
@@ -617,10 +617,10 @@
         <v>38</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>39</v>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -153,9 +153,6 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Пени за 1 день</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +558,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -605,28 +605,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>40</v>
@@ -2197,7 +2197,7 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="5">
         <f>MAX(H:H)</f>
@@ -2215,7 +2215,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C43" s="5">
         <f>MAX(K:K)</f>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -168,10 +168,10 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +558,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -626,7 +626,7 @@
         <v>39</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>40</v>
@@ -2215,7 +2215,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="5">
         <f>MAX(K:K)</f>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -547,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +558,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="5">
-        <f>1.1*25</f>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E3" s="5">
@@ -689,7 +689,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D34" si="1">1.1*25</f>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E4" s="5">
@@ -703,35 +703,35 @@
         <v>44806</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="5">
         <v>10</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>1911.2500000000002</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C22" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C22" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E5" s="5">
@@ -745,35 +745,35 @@
         <v>44807</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="5">
         <v>10</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1897.5000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E6" s="5">
@@ -787,35 +787,35 @@
         <v>44808</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="5">
         <v>10</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1883.7500000000002</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E7" s="5">
@@ -829,35 +829,35 @@
         <v>44809</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="5">
         <v>10</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1870.0000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E8" s="5">
@@ -871,35 +871,35 @@
         <v>44810</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="5">
         <v>10</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1856.2500000000002</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E9" s="5">
@@ -913,35 +913,35 @@
         <v>44811</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="5">
         <v>10</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1842.5000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E10" s="5">
@@ -955,35 +955,35 @@
         <v>44812</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="5">
         <v>10</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1828.7500000000002</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E11" s="5">
@@ -997,35 +997,35 @@
         <v>44813</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="5">
         <v>10</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1815.0000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5">
-        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E12" s="5">
@@ -1039,35 +1039,35 @@
         <v>44814</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="5">
         <v>10</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1811.2500000000002</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E13" s="5">
@@ -1081,35 +1081,35 @@
         <v>44815</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="5">
         <v>10</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1807.5000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E14" s="5">
@@ -1123,35 +1123,35 @@
         <v>44816</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="5">
         <v>10</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1803.7500000000002</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E15" s="5">
@@ -1165,35 +1165,35 @@
         <v>44817</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="5">
         <v>10</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1800.0000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E16" s="5">
@@ -1207,35 +1207,35 @@
         <v>44818</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="5">
         <v>10</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1796.2500000000002</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E17" s="5">
@@ -1249,35 +1249,35 @@
         <v>44819</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="5">
         <v>10</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1792.5000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E18" s="5">
@@ -1291,35 +1291,35 @@
         <v>44820</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="5">
         <v>10</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1788.7500000000002</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E19" s="5">
@@ -1333,35 +1333,35 @@
         <v>44821</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="5">
         <v>10</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1785.0000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E20" s="5">
@@ -1375,35 +1375,35 @@
         <v>44822</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="5">
         <v>10</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1781.2500000000002</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E21" s="5">
@@ -1417,35 +1417,35 @@
         <v>44823</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="5">
         <v>10</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1777.5000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E22" s="5">
@@ -1459,24 +1459,24 @@
         <v>44824</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="5">
         <v>10</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1773.7500000000002</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1486,7 +1486,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E23" s="5">
@@ -1500,24 +1500,24 @@
         <v>44825</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="5">
         <v>10</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2072.5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1528,7 +1528,7 @@
         <v>70.5</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E24" s="5">
@@ -1542,35 +1542,35 @@
         <v>44826</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="5">
         <v>10</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2068.75</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" ref="C25:C38" si="7">C24-0.5</f>
+        <f t="shared" ref="C25:C38" si="6">C24-0.5</f>
         <v>70</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E25" s="5">
@@ -1584,35 +1584,35 @@
         <v>44827</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="5">
         <v>10</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2065</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>69.5</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E26" s="5">
@@ -1626,35 +1626,35 @@
         <v>44828</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="5">
         <v>10</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2061.25</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E27" s="5">
@@ -1668,35 +1668,35 @@
         <v>44829</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="5">
         <v>10</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2057.5</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E28" s="5">
@@ -1710,35 +1710,35 @@
         <v>44830</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="5">
         <v>10</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2053.75</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E29" s="5">
@@ -1752,35 +1752,35 @@
         <v>44831</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="5">
         <v>10</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2050</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E30" s="5">
@@ -1794,35 +1794,35 @@
         <v>44832</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="5">
         <v>10</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2046.2500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E31" s="5">
@@ -1836,35 +1836,35 @@
         <v>44833</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="5">
         <v>10</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2042.5000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E32" s="5">
@@ -1878,35 +1878,35 @@
         <v>44834</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="5">
         <v>10</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2038.7500000000002</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D33" s="5">
-        <f>1.1*25</f>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E33" s="5">
@@ -1920,35 +1920,35 @@
         <v>44835</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="5">
         <v>10</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2035.0000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="1"/>
+        <f>1.1*A1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E34" s="5">
@@ -1962,35 +1962,35 @@
         <v>44836</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="5">
         <v>10</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2031.2500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D35" s="5">
-        <f>1.1*25/2</f>
+        <f>1.1*A1/2</f>
         <v>13.750000000000002</v>
       </c>
       <c r="E35" s="5">
@@ -2004,35 +2004,35 @@
         <v>44837</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="5">
         <v>10</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1133.75</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" ref="D36:D38" si="8">1.1*25/2</f>
+        <f>1.1*A1/2</f>
         <v>13.750000000000002</v>
       </c>
       <c r="E36" s="5">
@@ -2046,35 +2046,35 @@
         <v>44838</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="5">
         <v>10</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1136.875</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="8"/>
+        <f>1.1*A1/2</f>
         <v>13.750000000000002</v>
       </c>
       <c r="E37" s="5">
@@ -2088,35 +2088,35 @@
         <v>44839</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="5">
         <v>10</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1140</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="8"/>
+        <f>1.1*A1/2</f>
         <v>13.750000000000002</v>
       </c>
       <c r="E38" s="5">
@@ -2130,18 +2130,18 @@
         <v>44840</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="5">
         <v>10</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1143.125</v>
       </c>
     </row>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -547,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +558,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -661,14 +661,13 @@
         <v>44805</v>
       </c>
       <c r="H3" s="5">
-        <f>IF(G3&lt;F3,0,G3-F3)</f>
+        <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
         <v>10</v>
       </c>
       <c r="J3" s="5">
-        <f>I3*H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="5">
@@ -697,20 +696,23 @@
         <v>1911.2500000000002</v>
       </c>
       <c r="F4" s="6">
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="6">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="5">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="5">
@@ -727,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C22" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="5">
@@ -739,9 +741,11 @@
         <v>1897.5000000000002</v>
       </c>
       <c r="F5" s="6">
+        <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="6">
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="5">
@@ -749,6 +753,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="5">
+        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="5">
@@ -781,9 +786,11 @@
         <v>1883.7500000000002</v>
       </c>
       <c r="F6" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="6">
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="5">
@@ -791,6 +798,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="5">
@@ -823,9 +831,11 @@
         <v>1870.0000000000002</v>
       </c>
       <c r="F7" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="6">
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="5">
@@ -833,6 +843,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="5">
@@ -865,9 +876,11 @@
         <v>1856.2500000000002</v>
       </c>
       <c r="F8" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="6">
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="5">
@@ -875,6 +888,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="5">
@@ -907,9 +921,11 @@
         <v>1842.5000000000002</v>
       </c>
       <c r="F9" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="6">
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="5">
@@ -917,6 +933,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="5">
@@ -949,9 +966,11 @@
         <v>1828.7500000000002</v>
       </c>
       <c r="F10" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="6">
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="5">
@@ -959,6 +978,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="5">
@@ -991,9 +1011,11 @@
         <v>1815.0000000000002</v>
       </c>
       <c r="F11" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="6">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="5">
@@ -1001,6 +1023,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="5">
@@ -1033,9 +1056,11 @@
         <v>1801.2500000000002</v>
       </c>
       <c r="F12" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="6">
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="5">
@@ -1043,6 +1068,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="5">
@@ -1075,9 +1101,11 @@
         <v>1787.5000000000002</v>
       </c>
       <c r="F13" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="6">
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="5">
@@ -1085,6 +1113,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="5">
@@ -1117,9 +1146,11 @@
         <v>1773.7500000000002</v>
       </c>
       <c r="F14" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="6">
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="5">
@@ -1127,6 +1158,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="5">
@@ -1159,9 +1191,11 @@
         <v>1760.0000000000002</v>
       </c>
       <c r="F15" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="6">
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="5">
@@ -1169,6 +1203,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="5">
@@ -1201,9 +1236,11 @@
         <v>1746.2500000000002</v>
       </c>
       <c r="F16" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="6">
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="5">
@@ -1211,6 +1248,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="5">
@@ -1243,9 +1281,11 @@
         <v>1732.5000000000002</v>
       </c>
       <c r="F17" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="6">
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="5">
@@ -1253,6 +1293,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="5">
@@ -1285,9 +1326,11 @@
         <v>1718.7500000000002</v>
       </c>
       <c r="F18" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="6">
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="5">
@@ -1295,6 +1338,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="5">
@@ -1327,9 +1371,11 @@
         <v>1705.0000000000002</v>
       </c>
       <c r="F19" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="6">
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="5">
@@ -1337,6 +1383,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="5">
@@ -1369,9 +1416,11 @@
         <v>1691.2500000000002</v>
       </c>
       <c r="F20" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="6">
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="5">
@@ -1379,6 +1428,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="5">
@@ -1411,9 +1461,11 @@
         <v>1677.5000000000002</v>
       </c>
       <c r="F21" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="6">
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="5">
@@ -1421,6 +1473,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="5">
@@ -1453,9 +1506,11 @@
         <v>1663.7500000000002</v>
       </c>
       <c r="F22" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="6">
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="5">
@@ -1463,6 +1518,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="5">
@@ -1483,7 +1539,8 @@
         <v>21</v>
       </c>
       <c r="C23" s="5">
-        <v>71</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
       <c r="D23" s="5">
         <f>1.1*A1</f>
@@ -1491,12 +1548,14 @@
       </c>
       <c r="E23" s="5">
         <f t="shared" si="0"/>
-        <v>1952.5000000000002</v>
+        <v>1650.0000000000002</v>
       </c>
       <c r="F23" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="6">
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="5">
@@ -1504,6 +1563,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="5">
@@ -1512,7 +1572,7 @@
       </c>
       <c r="K23" s="5">
         <f t="shared" si="3"/>
-        <v>2072.5</v>
+        <v>1770.0000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1524,8 +1584,8 @@
         <v>22</v>
       </c>
       <c r="C24" s="5">
-        <f>C23-0.5</f>
-        <v>70.5</v>
+        <f t="shared" si="5"/>
+        <v>59.5</v>
       </c>
       <c r="D24" s="5">
         <f>1.1*A1</f>
@@ -1533,12 +1593,14 @@
       </c>
       <c r="E24" s="5">
         <f t="shared" si="0"/>
-        <v>1938.7500000000002</v>
+        <v>1636.2500000000002</v>
       </c>
       <c r="F24" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="6">
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="5">
@@ -1546,6 +1608,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="5">
@@ -1554,7 +1617,7 @@
       </c>
       <c r="K24" s="5">
         <f t="shared" si="3"/>
-        <v>2068.75</v>
+        <v>1766.2500000000002</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1566,8 +1629,8 @@
         <v>23</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" ref="C25:C38" si="6">C24-0.5</f>
-        <v>70</v>
+        <f t="shared" si="5"/>
+        <v>59</v>
       </c>
       <c r="D25" s="5">
         <f>1.1*A1</f>
@@ -1575,12 +1638,14 @@
       </c>
       <c r="E25" s="5">
         <f t="shared" si="0"/>
-        <v>1925.0000000000002</v>
+        <v>1622.5000000000002</v>
       </c>
       <c r="F25" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="6">
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="5">
@@ -1588,6 +1653,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="5">
@@ -1596,7 +1662,7 @@
       </c>
       <c r="K25" s="5">
         <f t="shared" si="3"/>
-        <v>2065</v>
+        <v>1762.5000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1608,8 +1674,8 @@
         <v>24</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="6"/>
-        <v>69.5</v>
+        <f t="shared" si="5"/>
+        <v>58.5</v>
       </c>
       <c r="D26" s="5">
         <f>1.1*A1</f>
@@ -1617,12 +1683,14 @@
       </c>
       <c r="E26" s="5">
         <f t="shared" si="0"/>
-        <v>1911.2500000000002</v>
+        <v>1608.7500000000002</v>
       </c>
       <c r="F26" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="6">
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="5">
@@ -1630,6 +1698,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="5">
@@ -1638,7 +1707,7 @@
       </c>
       <c r="K26" s="5">
         <f t="shared" si="3"/>
-        <v>2061.25</v>
+        <v>1758.7500000000002</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1650,8 +1719,8 @@
         <v>25</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="6"/>
-        <v>69</v>
+        <f t="shared" si="5"/>
+        <v>58</v>
       </c>
       <c r="D27" s="5">
         <f>1.1*A1</f>
@@ -1659,12 +1728,14 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" si="0"/>
-        <v>1897.5000000000002</v>
+        <v>1595.0000000000002</v>
       </c>
       <c r="F27" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="6">
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="5">
@@ -1672,6 +1743,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="5">
@@ -1680,7 +1752,7 @@
       </c>
       <c r="K27" s="5">
         <f t="shared" si="3"/>
-        <v>2057.5</v>
+        <v>1755.0000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1692,8 +1764,8 @@
         <v>26</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="6"/>
-        <v>68.5</v>
+        <f t="shared" si="5"/>
+        <v>57.5</v>
       </c>
       <c r="D28" s="5">
         <f>1.1*A1</f>
@@ -1701,12 +1773,14 @@
       </c>
       <c r="E28" s="5">
         <f t="shared" si="0"/>
-        <v>1883.7500000000002</v>
+        <v>1581.2500000000002</v>
       </c>
       <c r="F28" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="6">
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="5">
@@ -1714,6 +1788,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="5">
@@ -1722,7 +1797,7 @@
       </c>
       <c r="K28" s="5">
         <f t="shared" si="3"/>
-        <v>2053.75</v>
+        <v>1751.2500000000002</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1734,8 +1809,8 @@
         <v>27</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="6"/>
-        <v>68</v>
+        <f t="shared" si="5"/>
+        <v>57</v>
       </c>
       <c r="D29" s="5">
         <f>1.1*A1</f>
@@ -1743,12 +1818,14 @@
       </c>
       <c r="E29" s="5">
         <f t="shared" si="0"/>
-        <v>1870.0000000000002</v>
+        <v>1567.5000000000002</v>
       </c>
       <c r="F29" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="6">
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="5">
@@ -1756,6 +1833,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="5">
@@ -1764,7 +1842,7 @@
       </c>
       <c r="K29" s="5">
         <f t="shared" si="3"/>
-        <v>2050</v>
+        <v>1747.5000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1776,8 +1854,8 @@
         <v>28</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="6"/>
-        <v>67.5</v>
+        <f t="shared" si="5"/>
+        <v>56.5</v>
       </c>
       <c r="D30" s="5">
         <f>1.1*A1</f>
@@ -1785,12 +1863,14 @@
       </c>
       <c r="E30" s="5">
         <f t="shared" si="0"/>
-        <v>1856.2500000000002</v>
+        <v>1553.7500000000002</v>
       </c>
       <c r="F30" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="6">
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="5">
@@ -1798,6 +1878,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="5">
@@ -1806,7 +1887,7 @@
       </c>
       <c r="K30" s="5">
         <f t="shared" si="3"/>
-        <v>2046.2500000000002</v>
+        <v>1743.7500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1818,8 +1899,8 @@
         <v>29</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="6"/>
-        <v>67</v>
+        <f t="shared" si="5"/>
+        <v>56</v>
       </c>
       <c r="D31" s="5">
         <f>1.1*A1</f>
@@ -1827,12 +1908,14 @@
       </c>
       <c r="E31" s="5">
         <f t="shared" si="0"/>
-        <v>1842.5000000000002</v>
+        <v>1540.0000000000002</v>
       </c>
       <c r="F31" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="6">
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="5">
@@ -1840,6 +1923,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="5">
@@ -1848,7 +1932,7 @@
       </c>
       <c r="K31" s="5">
         <f t="shared" si="3"/>
-        <v>2042.5000000000002</v>
+        <v>1740.0000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1860,8 +1944,8 @@
         <v>30</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="6"/>
-        <v>66.5</v>
+        <f t="shared" si="5"/>
+        <v>55.5</v>
       </c>
       <c r="D32" s="5">
         <f>1.1*A1</f>
@@ -1869,12 +1953,14 @@
       </c>
       <c r="E32" s="5">
         <f t="shared" si="0"/>
-        <v>1828.7500000000002</v>
+        <v>1526.2500000000002</v>
       </c>
       <c r="F32" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="6">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="5">
@@ -1882,6 +1968,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="5">
@@ -1890,7 +1977,7 @@
       </c>
       <c r="K32" s="5">
         <f t="shared" si="3"/>
-        <v>2038.7500000000002</v>
+        <v>1736.2500000000002</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1902,8 +1989,8 @@
         <v>31</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="6"/>
-        <v>66</v>
+        <f t="shared" si="5"/>
+        <v>55</v>
       </c>
       <c r="D33" s="5">
         <f>1.1*A1</f>
@@ -1911,12 +1998,14 @@
       </c>
       <c r="E33" s="5">
         <f t="shared" si="0"/>
-        <v>1815.0000000000002</v>
+        <v>1512.5000000000002</v>
       </c>
       <c r="F33" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="6">
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="5">
@@ -1924,6 +2013,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="5">
@@ -1932,7 +2022,7 @@
       </c>
       <c r="K33" s="5">
         <f t="shared" si="3"/>
-        <v>2035.0000000000002</v>
+        <v>1732.5000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1944,8 +2034,8 @@
         <v>32</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="6"/>
-        <v>65.5</v>
+        <f t="shared" si="5"/>
+        <v>54.5</v>
       </c>
       <c r="D34" s="5">
         <f>1.1*A1</f>
@@ -1953,12 +2043,14 @@
       </c>
       <c r="E34" s="5">
         <f t="shared" si="0"/>
-        <v>1801.2500000000002</v>
+        <v>1498.7500000000002</v>
       </c>
       <c r="F34" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="6">
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="5">
@@ -1966,6 +2058,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="5">
@@ -1974,7 +2067,7 @@
       </c>
       <c r="K34" s="5">
         <f t="shared" si="3"/>
-        <v>2031.2500000000002</v>
+        <v>1728.7500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1986,8 +2079,8 @@
         <v>33</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="6"/>
-        <v>65</v>
+        <f t="shared" si="5"/>
+        <v>54</v>
       </c>
       <c r="D35" s="5">
         <f>1.1*A1/2</f>
@@ -1995,12 +2088,14 @@
       </c>
       <c r="E35" s="5">
         <f t="shared" si="0"/>
-        <v>893.75000000000011</v>
+        <v>742.50000000000011</v>
       </c>
       <c r="F35" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="6">
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="5">
@@ -2008,6 +2103,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="5">
@@ -2016,7 +2112,7 @@
       </c>
       <c r="K35" s="5">
         <f t="shared" si="3"/>
-        <v>1133.75</v>
+        <v>982.50000000000011</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2028,8 +2124,8 @@
         <v>34</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="6"/>
-        <v>64.5</v>
+        <f t="shared" si="5"/>
+        <v>53.5</v>
       </c>
       <c r="D36" s="5">
         <f>1.1*A1/2</f>
@@ -2037,12 +2133,14 @@
       </c>
       <c r="E36" s="5">
         <f t="shared" si="0"/>
-        <v>886.87500000000011</v>
+        <v>735.62500000000011</v>
       </c>
       <c r="F36" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="6">
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="5">
@@ -2050,6 +2148,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="5">
@@ -2058,7 +2157,7 @@
       </c>
       <c r="K36" s="5">
         <f t="shared" si="3"/>
-        <v>1136.875</v>
+        <v>985.62500000000011</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2070,8 +2169,8 @@
         <v>35</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="6"/>
-        <v>64</v>
+        <f t="shared" si="5"/>
+        <v>53</v>
       </c>
       <c r="D37" s="5">
         <f>1.1*A1/2</f>
@@ -2079,12 +2178,14 @@
       </c>
       <c r="E37" s="5">
         <f t="shared" si="0"/>
-        <v>880.00000000000011</v>
+        <v>728.75000000000011</v>
       </c>
       <c r="F37" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="6">
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="5">
@@ -2092,6 +2193,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="5">
@@ -2100,7 +2202,7 @@
       </c>
       <c r="K37" s="5">
         <f t="shared" si="3"/>
-        <v>1140</v>
+        <v>988.75000000000011</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2112,8 +2214,8 @@
         <v>36</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="6"/>
-        <v>63.5</v>
+        <f t="shared" si="5"/>
+        <v>52.5</v>
       </c>
       <c r="D38" s="5">
         <f>1.1*A1/2</f>
@@ -2121,12 +2223,14 @@
       </c>
       <c r="E38" s="5">
         <f t="shared" si="0"/>
-        <v>873.12500000000011</v>
+        <v>721.87500000000011</v>
       </c>
       <c r="F38" s="6">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="6">
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="5">
@@ -2134,6 +2238,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="5">
@@ -2142,7 +2247,7 @@
       </c>
       <c r="K38" s="5">
         <f t="shared" si="3"/>
-        <v>1143.125</v>
+        <v>991.87500000000011</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2165,7 +2270,7 @@
       </c>
       <c r="C40" s="5">
         <f>INT(SUM(E:E))</f>
-        <v>61943</v>
+        <v>57708</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2183,7 +2288,7 @@
       </c>
       <c r="C41" s="5">
         <f>AVERAGE(C3:C38)</f>
-        <v>66.138888888888886</v>
+        <v>61.25</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2219,7 +2324,7 @@
       </c>
       <c r="C43" s="5">
         <f>MAX(K:K)</f>
-        <v>2072.5</v>
+        <v>1925.0000000000002</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -547,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +558,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="5">
-        <f>1.1*A1</f>
+        <f>$A$1*1.1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E3" s="5">
@@ -668,6 +668,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="5">
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="5">
@@ -688,7 +689,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" ref="D4:D38" si="1">$A$1*1.1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E4" s="5">
@@ -704,7 +705,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="5">
@@ -712,28 +713,28 @@
         <v>10</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>1911.2500000000002</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E5" s="5">
@@ -741,44 +742,44 @@
         <v>1897.5000000000002</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5:F38" si="6">F4</f>
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" ref="I5:I38" si="8">I4</f>
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1897.5000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E6" s="5">
@@ -786,44 +787,44 @@
         <v>1883.7500000000002</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1883.7500000000002</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E7" s="5">
@@ -831,44 +832,44 @@
         <v>1870.0000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1870.0000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E8" s="5">
@@ -876,44 +877,44 @@
         <v>1856.2500000000002</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1856.2500000000002</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E9" s="5">
@@ -921,44 +922,44 @@
         <v>1842.5000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1842.5000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E10" s="5">
@@ -966,44 +967,44 @@
         <v>1828.7500000000002</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1828.7500000000002</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E11" s="5">
@@ -1011,44 +1012,44 @@
         <v>1815.0000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1815.0000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E12" s="5">
@@ -1056,44 +1057,44 @@
         <v>1801.2500000000002</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1811.2500000000002</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E13" s="5">
@@ -1101,44 +1102,44 @@
         <v>1787.5000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1807.5000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E14" s="5">
@@ -1146,44 +1147,44 @@
         <v>1773.7500000000002</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1803.7500000000002</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E15" s="5">
@@ -1191,44 +1192,44 @@
         <v>1760.0000000000002</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1800.0000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E16" s="5">
@@ -1236,44 +1237,44 @@
         <v>1746.2500000000002</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1796.2500000000002</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E17" s="5">
@@ -1281,44 +1282,44 @@
         <v>1732.5000000000002</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1792.5000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E18" s="5">
@@ -1326,44 +1327,44 @@
         <v>1718.7500000000002</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1788.7500000000002</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E19" s="5">
@@ -1371,44 +1372,44 @@
         <v>1705.0000000000002</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1785.0000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E20" s="5">
@@ -1416,44 +1417,44 @@
         <v>1691.2500000000002</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1781.2500000000002</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E21" s="5">
@@ -1461,44 +1462,44 @@
         <v>1677.5000000000002</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1777.5000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E22" s="5">
@@ -1506,44 +1507,44 @@
         <v>1663.7500000000002</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1773.7500000000002</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E23" s="5">
@@ -1551,44 +1552,44 @@
         <v>1650.0000000000002</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1770.0000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E24" s="5">
@@ -1596,44 +1597,44 @@
         <v>1636.2500000000002</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1766.2500000000002</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E25" s="5">
@@ -1641,44 +1642,44 @@
         <v>1622.5000000000002</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1762.5000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E26" s="5">
@@ -1686,44 +1687,44 @@
         <v>1608.7500000000002</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1758.7500000000002</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E27" s="5">
@@ -1731,44 +1732,44 @@
         <v>1595.0000000000002</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1755.0000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E28" s="5">
@@ -1776,44 +1777,44 @@
         <v>1581.2500000000002</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1751.2500000000002</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E29" s="5">
@@ -1821,44 +1822,44 @@
         <v>1567.5000000000002</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1747.5000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E30" s="5">
@@ -1866,44 +1867,44 @@
         <v>1553.7500000000002</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1743.7500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E31" s="5">
@@ -1911,44 +1912,44 @@
         <v>1540.0000000000002</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1740.0000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E32" s="5">
@@ -1956,44 +1957,44 @@
         <v>1526.2500000000002</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1736.2500000000002</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E33" s="5">
@@ -2001,44 +2002,44 @@
         <v>1512.5000000000002</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1732.5000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="5">
-        <f>1.1*A1</f>
+        <f t="shared" si="1"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E34" s="5">
@@ -2046,44 +2047,44 @@
         <v>1498.7500000000002</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1728.7500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="5">
-        <f>1.1*A1/2</f>
+        <f>$A$1*1.1/2</f>
         <v>13.750000000000002</v>
       </c>
       <c r="E35" s="5">
@@ -2091,44 +2092,44 @@
         <v>742.50000000000011</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>982.50000000000011</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="5">
-        <f>1.1*A1/2</f>
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
         <v>13.750000000000002</v>
       </c>
       <c r="E36" s="5">
@@ -2136,44 +2137,44 @@
         <v>735.62500000000011</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>985.62500000000011</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="5">
-        <f>1.1*A1/2</f>
+        <f t="shared" si="10"/>
         <v>13.750000000000002</v>
       </c>
       <c r="E37" s="5">
@@ -2181,44 +2182,44 @@
         <v>728.75000000000011</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>988.75000000000011</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="5">
-        <f>1.1*A1/2</f>
+        <f t="shared" si="10"/>
         <v>13.750000000000002</v>
       </c>
       <c r="E38" s="5">
@@ -2226,27 +2227,27 @@
         <v>721.87500000000011</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>991.87500000000011</v>
       </c>
     </row>
@@ -2269,7 +2270,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="5">
-        <f>INT(SUM(E:E))</f>
+        <f>INT(SUM(E3:E38))</f>
         <v>57708</v>
       </c>
       <c r="D40" s="5"/>
@@ -2305,7 +2306,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="5">
-        <f>MAX(H:H)</f>
+        <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
       <c r="D42" s="5"/>
@@ -2323,7 +2324,7 @@
         <v>49</v>
       </c>
       <c r="C43" s="5">
-        <f>MAX(K:K)</f>
+        <f>MAX(K3:K38)</f>
         <v>1925.0000000000002</v>
       </c>
       <c r="D43" s="5"/>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -547,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +558,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D38" si="1">$A$1*1.1</f>
+        <f t="shared" ref="D4:D34" si="1">$A$1*1.1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E4" s="5">
@@ -2270,8 +2270,8 @@
         <v>42</v>
       </c>
       <c r="C40" s="5">
-        <f>INT(SUM(E3:E38))</f>
-        <v>57708</v>
+        <f>INT(SUM(K3:K38))</f>
+        <v>61488</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -547,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +558,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2270,7 +2270,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="5">
-        <f>INT(SUM(K3:K38))</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>61488</v>
       </c>
       <c r="D40" s="5"/>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826177CC-C524-4D11-ADA6-39E5F9722634}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B99D589-3156-43A5-B961-AA4F9DEBB508}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>Низамова</t>
   </si>
   <si>
-    <t>Озартюк</t>
-  </si>
-  <si>
     <t>Санутков</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Ершов</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
     <t>Общая сумма</t>
   </si>
   <si>
@@ -178,6 +172,12 @@
   </si>
   <si>
     <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Озотюрк</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -601,10 +601,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
@@ -638,6 +638,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
+        <f>IF(G3&lt;F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -660,6 +661,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
@@ -671,15 +673,19 @@
         <v>1911.2500000000002</v>
       </c>
       <c r="F4" s="2">
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="2">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
+        <f t="shared" ref="H4:H38" si="4">IF(G4&lt;F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -699,6 +705,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -710,15 +717,19 @@
         <v>1897.5000000000002</v>
       </c>
       <c r="F5" s="2">
+        <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -738,6 +749,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -749,15 +761,19 @@
         <v>1883.7500000000002</v>
       </c>
       <c r="F6" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -777,6 +793,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -788,15 +805,19 @@
         <v>1870.0000000000002</v>
       </c>
       <c r="F7" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="2">
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -816,6 +837,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -827,15 +849,19 @@
         <v>1856.2500000000002</v>
       </c>
       <c r="F8" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -855,6 +881,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -866,15 +893,19 @@
         <v>1842.5000000000002</v>
       </c>
       <c r="F9" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -894,6 +925,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -905,15 +937,19 @@
         <v>1828.7500000000002</v>
       </c>
       <c r="F10" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -933,6 +969,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -944,15 +981,19 @@
         <v>1815.0000000000002</v>
       </c>
       <c r="F11" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -972,6 +1013,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -983,16 +1025,19 @@
         <v>1801.2500000000002</v>
       </c>
       <c r="F12" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" ref="H12:H38" si="4">G12-F12</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1012,6 +1057,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1023,9 +1069,11 @@
         <v>1787.5000000000002</v>
       </c>
       <c r="F13" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1033,6 +1081,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1052,6 +1101,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1063,9 +1113,11 @@
         <v>1773.7500000000002</v>
       </c>
       <c r="F14" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1073,6 +1125,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1092,6 +1145,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1103,9 +1157,11 @@
         <v>1760.0000000000002</v>
       </c>
       <c r="F15" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1113,6 +1169,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1132,6 +1189,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1143,9 +1201,11 @@
         <v>1746.2500000000002</v>
       </c>
       <c r="F16" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1153,6 +1213,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1172,6 +1233,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1183,9 +1245,11 @@
         <v>1732.5000000000002</v>
       </c>
       <c r="F17" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1193,6 +1257,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1212,6 +1277,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1223,9 +1289,11 @@
         <v>1718.7500000000002</v>
       </c>
       <c r="F18" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1233,6 +1301,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1252,6 +1321,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1263,9 +1333,11 @@
         <v>1705.0000000000002</v>
       </c>
       <c r="F19" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1273,6 +1345,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1289,9 +1362,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1303,9 +1377,11 @@
         <v>1691.2500000000002</v>
       </c>
       <c r="F20" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1313,6 +1389,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1329,9 +1406,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1343,9 +1421,11 @@
         <v>1677.5000000000002</v>
       </c>
       <c r="F21" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1353,6 +1433,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1369,9 +1450,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1383,9 +1465,11 @@
         <v>1663.7500000000002</v>
       </c>
       <c r="F22" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1393,6 +1477,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1409,9 +1494,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1423,9 +1509,11 @@
         <v>1650.0000000000002</v>
       </c>
       <c r="F23" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1433,6 +1521,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1449,9 +1538,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
@@ -1463,9 +1553,11 @@
         <v>1636.2500000000002</v>
       </c>
       <c r="F24" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1473,6 +1565,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1489,9 +1582,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1503,9 +1597,11 @@
         <v>1622.5000000000002</v>
       </c>
       <c r="F25" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1513,6 +1609,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1529,9 +1626,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1543,9 +1641,11 @@
         <v>1608.7500000000002</v>
       </c>
       <c r="F26" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1553,6 +1653,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1569,9 +1670,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1583,9 +1685,11 @@
         <v>1595.0000000000002</v>
       </c>
       <c r="F27" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1593,6 +1697,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1609,9 +1714,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1623,9 +1729,11 @@
         <v>1581.2500000000002</v>
       </c>
       <c r="F28" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1633,6 +1741,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1649,9 +1758,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1663,9 +1773,11 @@
         <v>1567.5000000000002</v>
       </c>
       <c r="F29" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1673,6 +1785,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1689,9 +1802,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1703,9 +1817,11 @@
         <v>1553.7500000000002</v>
       </c>
       <c r="F30" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1713,6 +1829,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1729,9 +1846,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1743,9 +1861,11 @@
         <v>1540.0000000000002</v>
       </c>
       <c r="F31" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1753,6 +1873,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1769,9 +1890,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1783,9 +1905,11 @@
         <v>1526.2500000000002</v>
       </c>
       <c r="F32" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1793,6 +1917,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1809,13 +1934,14 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" ref="D33:D38" si="5">25*1.1/2</f>
+        <f t="shared" ref="D33:D38" si="9">25*1.1/2</f>
         <v>13.750000000000002</v>
       </c>
       <c r="E33" s="1">
@@ -1823,9 +1949,11 @@
         <v>756.25000000000011</v>
       </c>
       <c r="F33" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1833,6 +1961,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1849,13 +1978,14 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13.750000000000002</v>
       </c>
       <c r="E34" s="1">
@@ -1863,9 +1993,11 @@
         <v>749.37500000000011</v>
       </c>
       <c r="F34" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1873,6 +2005,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1889,13 +2022,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13.750000000000002</v>
       </c>
       <c r="E35" s="1">
@@ -1903,9 +2037,11 @@
         <v>742.50000000000011</v>
       </c>
       <c r="F35" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -1913,6 +2049,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -1929,13 +2066,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13.750000000000002</v>
       </c>
       <c r="E36" s="1">
@@ -1943,9 +2081,11 @@
         <v>735.62500000000011</v>
       </c>
       <c r="F36" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="2">
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -1953,6 +2093,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -1969,13 +2110,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13.750000000000002</v>
       </c>
       <c r="E37" s="1">
@@ -1983,9 +2125,11 @@
         <v>728.75000000000011</v>
       </c>
       <c r="F37" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="2">
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -1993,6 +2137,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2009,13 +2154,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13.750000000000002</v>
       </c>
       <c r="E38" s="1">
@@ -2023,9 +2169,11 @@
         <v>721.87500000000011</v>
       </c>
       <c r="F38" s="2">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="2">
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2033,6 +2181,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2060,7 +2209,7 @@
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
@@ -2078,7 +2227,7 @@
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1">
         <f>SUM(C3:C38) / COUNT(C3:C38)</f>
@@ -2096,7 +2245,7 @@
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2114,7 +2263,7 @@
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B99D589-3156-43A5-B961-AA4F9DEBB508}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BA96D8-33AA-46F6-ACCD-24A308C137E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -624,11 +624,11 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D32" si="0">25*1.1</f>
+        <f>A1*1.1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E38" si="1">D3*C3</f>
+        <f t="shared" ref="E3:E38" si="0">D3*C3</f>
         <v>1925.0000000000002</v>
       </c>
       <c r="F3" s="2">
@@ -645,11 +645,11 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J38" si="2">I3*H3</f>
+        <f t="shared" ref="J3:J38" si="1">I3*H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K38" si="3">J3+E3</f>
+        <f t="shared" ref="K3:K38" si="2">J3+E3</f>
         <v>1925.0000000000002</v>
       </c>
     </row>
@@ -665,11 +665,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1911.2500000000002</v>
       </c>
       <c r="F4" s="2">
@@ -681,7 +681,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="4">IF(G4&lt;F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="3">IF(G4&lt;F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -689,11 +689,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1911.2500000000002</v>
       </c>
     </row>
@@ -705,15 +705,15 @@
         <v>11</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D38" si="5">D4</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1897.5000000000002</v>
       </c>
       <c r="F5" s="2">
@@ -725,7 +725,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -733,11 +733,11 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1897.5000000000002</v>
       </c>
     </row>
@@ -749,15 +749,15 @@
         <v>12</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1883.7500000000002</v>
       </c>
       <c r="F6" s="2">
@@ -769,7 +769,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -777,11 +777,11 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1883.7500000000002</v>
       </c>
     </row>
@@ -793,15 +793,15 @@
         <v>13</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1870.0000000000002</v>
       </c>
       <c r="F7" s="2">
@@ -813,7 +813,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -821,11 +821,11 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1870.0000000000002</v>
       </c>
     </row>
@@ -837,15 +837,15 @@
         <v>14</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1856.2500000000002</v>
       </c>
       <c r="F8" s="2">
@@ -857,7 +857,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -865,11 +865,11 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1856.2500000000002</v>
       </c>
     </row>
@@ -881,15 +881,15 @@
         <v>15</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1842.5000000000002</v>
       </c>
       <c r="F9" s="2">
@@ -901,7 +901,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -909,11 +909,11 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1842.5000000000002</v>
       </c>
     </row>
@@ -925,15 +925,15 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1828.7500000000002</v>
       </c>
       <c r="F10" s="2">
@@ -945,7 +945,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -953,11 +953,11 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1828.7500000000002</v>
       </c>
     </row>
@@ -969,15 +969,15 @@
         <v>17</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1815.0000000000002</v>
       </c>
       <c r="F11" s="2">
@@ -989,7 +989,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -997,11 +997,11 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1815.0000000000002</v>
       </c>
     </row>
@@ -1013,15 +1013,15 @@
         <v>18</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1801.2500000000002</v>
       </c>
       <c r="F12" s="2">
@@ -1033,7 +1033,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1041,11 +1041,11 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1811.2500000000002</v>
       </c>
     </row>
@@ -1057,15 +1057,15 @@
         <v>19</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1787.5000000000002</v>
       </c>
       <c r="F13" s="2">
@@ -1077,7 +1077,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1085,11 +1085,11 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1807.5000000000002</v>
       </c>
     </row>
@@ -1101,15 +1101,15 @@
         <v>20</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1773.7500000000002</v>
       </c>
       <c r="F14" s="2">
@@ -1121,7 +1121,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1129,11 +1129,11 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1803.7500000000002</v>
       </c>
     </row>
@@ -1145,15 +1145,15 @@
         <v>21</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1760.0000000000002</v>
       </c>
       <c r="F15" s="2">
@@ -1165,7 +1165,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1173,11 +1173,11 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1800.0000000000002</v>
       </c>
     </row>
@@ -1189,15 +1189,15 @@
         <v>22</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1746.2500000000002</v>
       </c>
       <c r="F16" s="2">
@@ -1209,7 +1209,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1217,11 +1217,11 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1796.2500000000002</v>
       </c>
     </row>
@@ -1233,15 +1233,15 @@
         <v>23</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1732.5000000000002</v>
       </c>
       <c r="F17" s="2">
@@ -1253,7 +1253,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1261,11 +1261,11 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1792.5000000000002</v>
       </c>
     </row>
@@ -1277,15 +1277,15 @@
         <v>24</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1718.7500000000002</v>
       </c>
       <c r="F18" s="2">
@@ -1297,7 +1297,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1305,11 +1305,11 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1788.7500000000002</v>
       </c>
     </row>
@@ -1321,15 +1321,15 @@
         <v>25</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1705.0000000000002</v>
       </c>
       <c r="F19" s="2">
@@ -1341,7 +1341,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1349,11 +1349,11 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1785.0000000000002</v>
       </c>
     </row>
@@ -1365,15 +1365,15 @@
         <v>49</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1691.2500000000002</v>
       </c>
       <c r="F20" s="2">
@@ -1385,7 +1385,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1393,11 +1393,11 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1781.2500000000002</v>
       </c>
     </row>
@@ -1409,15 +1409,15 @@
         <v>26</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1677.5000000000002</v>
       </c>
       <c r="F21" s="2">
@@ -1429,7 +1429,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1437,11 +1437,11 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1777.5000000000002</v>
       </c>
     </row>
@@ -1453,15 +1453,15 @@
         <v>27</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1663.7500000000002</v>
       </c>
       <c r="F22" s="2">
@@ -1473,7 +1473,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1481,11 +1481,11 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1773.7500000000002</v>
       </c>
     </row>
@@ -1497,15 +1497,15 @@
         <v>28</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1650.0000000000002</v>
       </c>
       <c r="F23" s="2">
@@ -1517,7 +1517,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1525,11 +1525,11 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1770.0000000000002</v>
       </c>
     </row>
@@ -1541,15 +1541,15 @@
         <v>29</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1636.2500000000002</v>
       </c>
       <c r="F24" s="2">
@@ -1561,7 +1561,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1569,11 +1569,11 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1766.2500000000002</v>
       </c>
     </row>
@@ -1585,15 +1585,15 @@
         <v>30</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1622.5000000000002</v>
       </c>
       <c r="F25" s="2">
@@ -1605,7 +1605,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1613,11 +1613,11 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1762.5000000000002</v>
       </c>
     </row>
@@ -1629,15 +1629,15 @@
         <v>31</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1608.7500000000002</v>
       </c>
       <c r="F26" s="2">
@@ -1649,7 +1649,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1657,11 +1657,11 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1758.7500000000002</v>
       </c>
     </row>
@@ -1673,15 +1673,15 @@
         <v>32</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1595.0000000000002</v>
       </c>
       <c r="F27" s="2">
@@ -1693,7 +1693,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1701,11 +1701,11 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1755.0000000000002</v>
       </c>
     </row>
@@ -1717,15 +1717,15 @@
         <v>33</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1581.2500000000002</v>
       </c>
       <c r="F28" s="2">
@@ -1737,7 +1737,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1745,11 +1745,11 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1751.2500000000002</v>
       </c>
     </row>
@@ -1761,15 +1761,15 @@
         <v>34</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1567.5000000000002</v>
       </c>
       <c r="F29" s="2">
@@ -1781,7 +1781,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1789,11 +1789,11 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1747.5000000000002</v>
       </c>
     </row>
@@ -1805,15 +1805,15 @@
         <v>35</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1553.7500000000002</v>
       </c>
       <c r="F30" s="2">
@@ -1825,7 +1825,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1833,11 +1833,11 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1743.7500000000002</v>
       </c>
     </row>
@@ -1849,15 +1849,15 @@
         <v>36</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1540.0000000000002</v>
       </c>
       <c r="F31" s="2">
@@ -1869,7 +1869,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1877,11 +1877,11 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1740.0000000000002</v>
       </c>
     </row>
@@ -1893,15 +1893,15 @@
         <v>37</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1526.2500000000002</v>
       </c>
       <c r="F32" s="2">
@@ -1913,7 +1913,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1921,11 +1921,11 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1736.2500000000002</v>
       </c>
     </row>
@@ -1937,16 +1937,16 @@
         <v>38</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" ref="D33:D38" si="9">25*1.1/2</f>
-        <v>13.750000000000002</v>
+        <f t="shared" si="5"/>
+        <v>27.500000000000004</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
-        <v>756.25000000000011</v>
+        <f t="shared" si="0"/>
+        <v>1512.5000000000002</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="6"/>
@@ -1957,7 +1957,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1965,12 +1965,12 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
-        <v>976.25000000000011</v>
+        <f t="shared" si="2"/>
+        <v>1732.5000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1981,16 +1981,16 @@
         <v>39</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="9"/>
-        <v>13.750000000000002</v>
+        <f t="shared" si="5"/>
+        <v>27.500000000000004</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
-        <v>749.37500000000011</v>
+        <f t="shared" si="0"/>
+        <v>1498.7500000000002</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="6"/>
@@ -2001,7 +2001,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2009,12 +2009,12 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
-        <v>979.37500000000011</v>
+        <f t="shared" si="2"/>
+        <v>1728.7500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2025,16 +2025,16 @@
         <v>40</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="9"/>
-        <v>13.750000000000002</v>
+        <f t="shared" si="5"/>
+        <v>27.500000000000004</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>742.50000000000011</v>
+        <f t="shared" si="0"/>
+        <v>1485.0000000000002</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="6"/>
@@ -2045,7 +2045,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2053,12 +2053,12 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
-        <v>982.50000000000011</v>
+        <f t="shared" si="2"/>
+        <v>1725.0000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2069,16 +2069,16 @@
         <v>50</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="9"/>
-        <v>13.750000000000002</v>
+        <f t="shared" si="5"/>
+        <v>27.500000000000004</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
-        <v>735.62500000000011</v>
+        <f t="shared" si="0"/>
+        <v>1471.2500000000002</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="6"/>
@@ -2089,7 +2089,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2097,12 +2097,12 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
-        <v>985.62500000000011</v>
+        <f t="shared" si="2"/>
+        <v>1721.2500000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2113,16 +2113,16 @@
         <v>47</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="9"/>
-        <v>13.750000000000002</v>
+        <f t="shared" si="5"/>
+        <v>27.500000000000004</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
-        <v>728.75000000000011</v>
+        <f t="shared" si="0"/>
+        <v>1457.5000000000002</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="6"/>
@@ -2133,7 +2133,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2141,12 +2141,12 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
-        <v>988.75000000000011</v>
+        <f t="shared" si="2"/>
+        <v>1717.5000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2157,16 +2157,16 @@
         <v>48</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="9"/>
-        <v>13.750000000000002</v>
+        <f t="shared" si="5"/>
+        <v>27.500000000000004</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
-        <v>721.87500000000011</v>
+        <f t="shared" si="0"/>
+        <v>1443.7500000000002</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="6"/>
@@ -2177,7 +2177,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2185,12 +2185,12 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
-        <v>991.87500000000011</v>
+        <f t="shared" si="2"/>
+        <v>1713.7500000000002</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
-        <v>59983.125000000007</v>
+        <v>64417.500000000007</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2285,5 +2285,8 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="E4 E5:E38" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BA96D8-33AA-46F6-ACCD-24A308C137E3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74015BDC-4D45-4407-B137-712D7ED128CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,24 +36,12 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Тариф, руб</t>
-  </si>
-  <si>
-    <t>Сумма, руб/кв.м.</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Штраф, руб</t>
-  </si>
-  <si>
-    <t>Итого, руб</t>
-  </si>
-  <si>
     <t>Адельвахаб</t>
   </si>
   <si>
@@ -150,21 +138,6 @@
     <t>Ершов</t>
   </si>
   <si>
-    <t>Общая сумма</t>
-  </si>
-  <si>
-    <t>Средняя площадь</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки</t>
-  </si>
-  <si>
-    <t>Максимальная сумма</t>
-  </si>
-  <si>
-    <t>Пени за 1 день, руб</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -178,15 +151,41 @@
   </si>
   <si>
     <t>Мохамед</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Тариф, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Сумма, руб./кв.м.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="165" formatCode="#"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -230,7 +229,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -550,13 +549,13 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
     <col min="3" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" customWidth="1"/>
@@ -589,28 +588,28 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -618,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -658,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -702,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -746,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="4"/>
@@ -790,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="4"/>
@@ -834,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>
@@ -878,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="4"/>
@@ -922,7 +921,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="4"/>
@@ -966,7 +965,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="4"/>
@@ -1010,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="4"/>
@@ -1054,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="4"/>
@@ -1098,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="4"/>
@@ -1142,7 +1141,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="4"/>
@@ -1186,7 +1185,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="4"/>
@@ -1230,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="4"/>
@@ -1274,7 +1273,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="4"/>
@@ -1318,7 +1317,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="4"/>
@@ -1362,7 +1361,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
@@ -1406,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
@@ -1450,7 +1449,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>
@@ -1494,7 +1493,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="4"/>
@@ -1538,7 +1537,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
@@ -1582,7 +1581,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
@@ -1626,7 +1625,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
@@ -1670,7 +1669,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
@@ -1714,7 +1713,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
@@ -1758,7 +1757,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
@@ -1802,7 +1801,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
@@ -1846,7 +1845,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
@@ -1890,7 +1889,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
@@ -1934,7 +1933,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="4"/>
@@ -1978,7 +1977,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="4"/>
@@ -2022,7 +2021,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="4"/>
@@ -2066,7 +2065,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
@@ -2110,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2154,7 +2153,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
@@ -2209,7 +2208,7 @@
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74015BDC-4D45-4407-B137-712D7ED128CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD65241-AEAA-48D0-89ED-CC7640C22BA4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -637,7 +637,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&lt;F3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -654,6 +654,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -680,7 +681,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="3">IF(G4&lt;F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="3">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -698,17 +699,18 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="5">D4</f>
+        <f t="shared" ref="D5:D38" si="6">D4</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E5" s="1">
@@ -716,11 +718,11 @@
         <v>1897.5000000000002</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F38" si="6">F4</f>
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -728,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="8">I4</f>
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -742,17 +744,18 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E6" s="1">
@@ -760,11 +763,11 @@
         <v>1883.7500000000002</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -772,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -786,17 +789,18 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E7" s="1">
@@ -804,11 +808,11 @@
         <v>1870.0000000000002</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -816,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -830,17 +834,18 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E8" s="1">
@@ -848,11 +853,11 @@
         <v>1856.2500000000002</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -860,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -874,17 +879,18 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E9" s="1">
@@ -892,11 +898,11 @@
         <v>1842.5000000000002</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -904,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -918,17 +924,18 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E10" s="1">
@@ -936,11 +943,11 @@
         <v>1828.7500000000002</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -948,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -962,17 +969,18 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E11" s="1">
@@ -980,11 +988,11 @@
         <v>1815.0000000000002</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -992,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1006,17 +1014,18 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E12" s="1">
@@ -1024,11 +1033,11 @@
         <v>1801.2500000000002</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1036,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1050,17 +1059,18 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E13" s="1">
@@ -1068,11 +1078,11 @@
         <v>1787.5000000000002</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1080,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1094,17 +1104,18 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E14" s="1">
@@ -1112,11 +1123,11 @@
         <v>1773.7500000000002</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1124,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1138,17 +1149,18 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E15" s="1">
@@ -1156,11 +1168,11 @@
         <v>1760.0000000000002</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1168,7 +1180,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1182,17 +1194,18 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E16" s="1">
@@ -1200,11 +1213,11 @@
         <v>1746.2500000000002</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1212,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1226,17 +1239,18 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E17" s="1">
@@ -1244,11 +1258,11 @@
         <v>1732.5000000000002</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1256,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1270,17 +1284,18 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E18" s="1">
@@ -1288,11 +1303,11 @@
         <v>1718.7500000000002</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1300,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1314,17 +1329,18 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E19" s="1">
@@ -1332,11 +1348,11 @@
         <v>1705.0000000000002</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1344,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1358,17 +1374,18 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E20" s="1">
@@ -1376,11 +1393,11 @@
         <v>1691.2500000000002</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1388,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1402,17 +1419,18 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E21" s="1">
@@ -1420,11 +1438,11 @@
         <v>1677.5000000000002</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1432,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1446,17 +1464,18 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E22" s="1">
@@ -1464,11 +1483,11 @@
         <v>1663.7500000000002</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1476,7 +1495,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1490,17 +1509,18 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E23" s="1">
@@ -1508,11 +1528,11 @@
         <v>1650.0000000000002</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1520,7 +1540,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1534,17 +1554,18 @@
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E24" s="1">
@@ -1552,11 +1573,11 @@
         <v>1636.2500000000002</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1564,7 +1585,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1578,17 +1599,18 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E25" s="1">
@@ -1596,11 +1618,11 @@
         <v>1622.5000000000002</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1608,7 +1630,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1622,17 +1644,18 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E26" s="1">
@@ -1640,11 +1663,11 @@
         <v>1608.7500000000002</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1652,7 +1675,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1666,17 +1689,18 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E27" s="1">
@@ -1684,11 +1708,11 @@
         <v>1595.0000000000002</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1696,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1710,17 +1734,18 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E28" s="1">
@@ -1728,11 +1753,11 @@
         <v>1581.2500000000002</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1740,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1754,17 +1779,18 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E29" s="1">
@@ -1772,11 +1798,11 @@
         <v>1567.5000000000002</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1784,7 +1810,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1798,17 +1824,18 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E30" s="1">
@@ -1816,11 +1843,11 @@
         <v>1553.7500000000002</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1828,7 +1855,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1842,17 +1869,18 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E31" s="1">
@@ -1860,11 +1888,11 @@
         <v>1540.0000000000002</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1872,7 +1900,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1886,17 +1914,18 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E32" s="1">
@@ -1904,11 +1933,11 @@
         <v>1526.2500000000002</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1916,7 +1945,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1930,17 +1959,18 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E33" s="1">
@@ -1948,11 +1978,11 @@
         <v>1512.5000000000002</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1960,7 +1990,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1974,17 +2004,18 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
       <c r="E34" s="1">
@@ -1992,11 +2023,11 @@
         <v>1498.7500000000002</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -2004,7 +2035,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2018,29 +2049,30 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="5"/>
-        <v>27.500000000000004</v>
+        <f>D3/2</f>
+        <v>13.750000000000002</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>1485.0000000000002</v>
+        <v>742.50000000000011</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2048,7 +2080,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2057,34 +2089,35 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="2"/>
-        <v>1725.0000000000002</v>
+        <v>982.50000000000011</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="5"/>
-        <v>27.500000000000004</v>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <v>13.750000000000002</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>1471.2500000000002</v>
+        <v>735.62500000000011</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2092,7 +2125,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2101,34 +2134,35 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="2"/>
-        <v>1721.2500000000002</v>
+        <v>985.62500000000011</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="5"/>
-        <v>27.500000000000004</v>
+        <f t="shared" si="10"/>
+        <v>13.750000000000002</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>1457.5000000000002</v>
+        <v>728.75000000000011</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2136,7 +2170,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2145,34 +2179,35 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="2"/>
-        <v>1717.5000000000002</v>
+        <v>988.75000000000011</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="5"/>
-        <v>27.500000000000004</v>
+        <f t="shared" si="10"/>
+        <v>13.750000000000002</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>1443.7500000000002</v>
+        <v>721.87500000000011</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2180,7 +2215,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="2"/>
-        <v>1713.7500000000002</v>
+        <v>991.87500000000011</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2212,7 +2247,7 @@
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
-        <v>64417.500000000007</v>
+        <v>61488.750000000007</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD65241-AEAA-48D0-89ED-CC7640C22BA4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD6D104-7BA5-455D-9688-EE6C33712713}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Сумма, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -582,34 +582,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -658,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -703,14 +703,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="6">D4</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>27.500000000000004</v>
       </c>
       <c r="E5" s="1">
@@ -748,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -838,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -883,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -928,7 +928,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -973,7 +973,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -1018,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1063,7 +1063,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1108,7 +1108,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1153,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1198,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1243,7 +1243,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1288,7 +1288,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1333,7 +1333,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1378,7 +1378,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1423,7 +1423,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1468,7 +1468,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1513,7 +1513,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1558,7 +1558,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1603,7 +1603,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1648,7 +1648,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1693,7 +1693,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1738,7 +1738,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1783,7 +1783,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1828,7 +1828,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1873,7 +1873,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1918,7 +1918,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1963,7 +1963,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2008,7 +2008,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2053,7 +2053,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2098,7 +2098,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2143,7 +2143,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2188,7 +2188,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2243,11 +2243,11 @@
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="3">
-        <f>SUM(K3:K38)</f>
-        <v>61488.750000000007</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>61488</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2261,7 +2261,7 @@
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
         <f>SUM(C3:C38) / COUNT(C3:C38)</f>
@@ -2279,7 +2279,7 @@
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2297,7 +2297,7 @@
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD6D104-7BA5-455D-9688-EE6C33712713}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E4DF6E-3057-4928-A77B-357F05605B25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,9 +162,6 @@
     <t>Общая сумма, руб.</t>
   </si>
   <si>
-    <t>Тариф, руб.</t>
-  </si>
-  <si>
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
@@ -174,10 +171,13 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Сумма, руб./кв.м.</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Тариф, руб/кв.м</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -603,13 +603,13 @@
         <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E4DF6E-3057-4928-A77B-357F05605B25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCB3804-49BB-4947-AF86-A3E10D2D2150}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCB3804-49BB-4947-AF86-A3E10D2D2150}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B5AA5E-F811-47E8-AC4E-05763A7B1871}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2264,7 +2264,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="1">
-        <f>SUM(C3:C38) / COUNT(C3:C38)</f>
+        <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
       <c r="D41" s="1"/>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B5AA5E-F811-47E8-AC4E-05763A7B1871}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE24F98E-9196-436A-B01E-105A16358381}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -174,10 +174,10 @@
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
-    <t>Тариф, руб/кв.м</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Тариф, руб/кв.м.</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -588,10 +588,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE24F98E-9196-436A-B01E-105A16358381}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C50D083-BCE3-4D89-AC07-994B7F6790A5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,6 +230,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -546,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -562,7 +565,7 @@
     <col min="10" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>25</v>
       </c>
@@ -576,8 +579,11 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,8 +617,11 @@
       <c r="K2" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -651,8 +660,11 @@
         <f t="shared" ref="K3:K38" si="2">J3+E3</f>
         <v>1925.0000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -696,8 +708,11 @@
         <f t="shared" si="2"/>
         <v>1911.2500000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
@@ -741,8 +756,11 @@
         <f t="shared" si="2"/>
         <v>1897.5000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -786,8 +804,11 @@
         <f t="shared" si="2"/>
         <v>1883.7500000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -831,8 +852,11 @@
         <f t="shared" si="2"/>
         <v>1870.0000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -876,8 +900,11 @@
         <f t="shared" si="2"/>
         <v>1856.2500000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -921,8 +948,11 @@
         <f t="shared" si="2"/>
         <v>1842.5000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -966,8 +996,11 @@
         <f t="shared" si="2"/>
         <v>1828.7500000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -1011,8 +1044,11 @@
         <f t="shared" si="2"/>
         <v>1815.0000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1056,8 +1092,11 @@
         <f t="shared" si="2"/>
         <v>1811.2500000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1101,8 +1140,11 @@
         <f t="shared" si="2"/>
         <v>1807.5000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1146,8 +1188,11 @@
         <f t="shared" si="2"/>
         <v>1803.7500000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1191,8 +1236,11 @@
         <f t="shared" si="2"/>
         <v>1800.0000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -1236,8 +1284,11 @@
         <f t="shared" si="2"/>
         <v>1796.2500000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -1281,8 +1332,11 @@
         <f t="shared" si="2"/>
         <v>1792.5000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -1326,8 +1380,11 @@
         <f t="shared" si="2"/>
         <v>1788.7500000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -1371,8 +1428,11 @@
         <f t="shared" si="2"/>
         <v>1785.0000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1416,8 +1476,11 @@
         <f t="shared" si="2"/>
         <v>1781.2500000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1461,8 +1524,11 @@
         <f t="shared" si="2"/>
         <v>1777.5000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -1506,8 +1572,11 @@
         <f t="shared" si="2"/>
         <v>1773.7500000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1551,8 +1620,11 @@
         <f t="shared" si="2"/>
         <v>1770.0000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1596,8 +1668,11 @@
         <f t="shared" si="2"/>
         <v>1766.2500000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1641,8 +1716,11 @@
         <f t="shared" si="2"/>
         <v>1762.5000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -1686,8 +1764,11 @@
         <f t="shared" si="2"/>
         <v>1758.7500000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -1731,8 +1812,11 @@
         <f t="shared" si="2"/>
         <v>1755.0000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -1776,8 +1860,11 @@
         <f t="shared" si="2"/>
         <v>1751.2500000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -1821,8 +1908,11 @@
         <f t="shared" si="2"/>
         <v>1747.5000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -1866,8 +1956,11 @@
         <f t="shared" si="2"/>
         <v>1743.7500000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -1911,8 +2004,11 @@
         <f t="shared" si="2"/>
         <v>1740.0000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -1956,8 +2052,11 @@
         <f t="shared" si="2"/>
         <v>1736.2500000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -2001,8 +2100,11 @@
         <f t="shared" si="2"/>
         <v>1732.5000000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -2046,8 +2148,11 @@
         <f t="shared" si="2"/>
         <v>1728.7500000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -2091,8 +2196,11 @@
         <f t="shared" si="2"/>
         <v>982.50000000000011</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -2136,8 +2244,11 @@
         <f t="shared" si="2"/>
         <v>985.62500000000011</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -2181,8 +2292,11 @@
         <f t="shared" si="2"/>
         <v>988.75000000000011</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -2226,8 +2340,11 @@
         <f t="shared" si="2"/>
         <v>991.87500000000011</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2239,8 +2356,11 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>44</v>
@@ -2257,8 +2377,11 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>41</v>
@@ -2275,8 +2398,11 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>42</v>
@@ -2293,8 +2419,11 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>43</v>
@@ -2311,6 +2440,201 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C50D083-BCE3-4D89-AC07-994B7F6790A5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859CD7A8-8FAF-425F-9418-E37437D1FEFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,6 +234,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -583,38 +586,38 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>47</v>
       </c>
       <c r="L2" s="4"/>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859CD7A8-8FAF-425F-9418-E37437D1FEFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A5894F-68FE-4CBB-B127-A8B159AA1498}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,7 +177,7 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Тариф, руб/кв.м.</t>
+    <t>Тариф, руб./кв.м.</t>
   </si>
 </sst>
 </file>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A5894F-68FE-4CBB-B127-A8B159AA1498}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE462788-B4BF-44DE-94FE-1F63758D8697}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J3" sqref="J3:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -639,7 +639,7 @@
         <v>27.500000000000004</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E38" si="0">D3*C3</f>
+        <f>PRODUCT(D3,C3)</f>
         <v>1925.0000000000002</v>
       </c>
       <c r="F3" s="2">
@@ -656,11 +656,11 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J38" si="1">I3*H3</f>
+        <f>PRODUCT(I3,H3)</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K38" si="2">J3+E3</f>
+        <f>SUM(J3,E3)</f>
         <v>1925.0000000000002</v>
       </c>
       <c r="L3" s="4"/>
@@ -684,7 +684,7 @@
         <v>27.500000000000004</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E4:E38" si="0">PRODUCT(D4,C4)</f>
         <v>1911.2500000000002</v>
       </c>
       <c r="F4" s="2">
@@ -696,7 +696,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="3">IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -704,11 +704,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J4:J38" si="2">PRODUCT(I4,H4)</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K4:K38" si="3">SUM(J4,E4)</f>
         <v>1911.2500000000002</v>
       </c>
       <c r="L4" s="4"/>
@@ -744,7 +744,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -752,11 +752,11 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1897.5000000000002</v>
       </c>
       <c r="L5" s="4"/>
@@ -792,7 +792,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -800,11 +800,11 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1883.7500000000002</v>
       </c>
       <c r="L6" s="4"/>
@@ -840,7 +840,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -848,11 +848,11 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1870.0000000000002</v>
       </c>
       <c r="L7" s="4"/>
@@ -888,7 +888,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -896,11 +896,11 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1856.2500000000002</v>
       </c>
       <c r="L8" s="4"/>
@@ -936,7 +936,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -944,11 +944,11 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1842.5000000000002</v>
       </c>
       <c r="L9" s="4"/>
@@ -984,7 +984,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -992,11 +992,11 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1828.7500000000002</v>
       </c>
       <c r="L10" s="4"/>
@@ -1032,7 +1032,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -1040,11 +1040,11 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1815.0000000000002</v>
       </c>
       <c r="L11" s="4"/>
@@ -1080,7 +1080,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1088,11 +1088,11 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1811.2500000000002</v>
       </c>
       <c r="L12" s="4"/>
@@ -1128,7 +1128,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1136,11 +1136,11 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1807.5000000000002</v>
       </c>
       <c r="L13" s="4"/>
@@ -1176,7 +1176,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1184,11 +1184,11 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1803.7500000000002</v>
       </c>
       <c r="L14" s="4"/>
@@ -1224,7 +1224,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1232,11 +1232,11 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1800.0000000000002</v>
       </c>
       <c r="L15" s="4"/>
@@ -1272,7 +1272,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1280,11 +1280,11 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1796.2500000000002</v>
       </c>
       <c r="L16" s="4"/>
@@ -1320,7 +1320,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1328,11 +1328,11 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1792.5000000000002</v>
       </c>
       <c r="L17" s="4"/>
@@ -1368,7 +1368,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1376,11 +1376,11 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1788.7500000000002</v>
       </c>
       <c r="L18" s="4"/>
@@ -1416,7 +1416,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1424,11 +1424,11 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1785.0000000000002</v>
       </c>
       <c r="L19" s="4"/>
@@ -1464,7 +1464,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1472,11 +1472,11 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1781.2500000000002</v>
       </c>
       <c r="L20" s="4"/>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1520,11 +1520,11 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1777.5000000000002</v>
       </c>
       <c r="L21" s="4"/>
@@ -1560,7 +1560,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1568,11 +1568,11 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1773.7500000000002</v>
       </c>
       <c r="L22" s="4"/>
@@ -1608,7 +1608,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1616,11 +1616,11 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1770.0000000000002</v>
       </c>
       <c r="L23" s="4"/>
@@ -1656,7 +1656,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1664,11 +1664,11 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1766.2500000000002</v>
       </c>
       <c r="L24" s="4"/>
@@ -1704,7 +1704,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1712,11 +1712,11 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1762.5000000000002</v>
       </c>
       <c r="L25" s="4"/>
@@ -1752,7 +1752,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1760,11 +1760,11 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1758.7500000000002</v>
       </c>
       <c r="L26" s="4"/>
@@ -1800,7 +1800,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1808,11 +1808,11 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1755.0000000000002</v>
       </c>
       <c r="L27" s="4"/>
@@ -1848,7 +1848,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1856,11 +1856,11 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1751.2500000000002</v>
       </c>
       <c r="L28" s="4"/>
@@ -1896,7 +1896,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1904,11 +1904,11 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1747.5000000000002</v>
       </c>
       <c r="L29" s="4"/>
@@ -1944,7 +1944,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1952,11 +1952,11 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1743.7500000000002</v>
       </c>
       <c r="L30" s="4"/>
@@ -1992,7 +1992,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -2000,11 +2000,11 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1740.0000000000002</v>
       </c>
       <c r="L31" s="4"/>
@@ -2040,7 +2040,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -2048,11 +2048,11 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1736.2500000000002</v>
       </c>
       <c r="L32" s="4"/>
@@ -2088,7 +2088,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -2096,11 +2096,11 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1732.5000000000002</v>
       </c>
       <c r="L33" s="4"/>
@@ -2136,7 +2136,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2144,11 +2144,11 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1728.7500000000002</v>
       </c>
       <c r="L34" s="4"/>
@@ -2184,7 +2184,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2192,11 +2192,11 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>982.50000000000011</v>
       </c>
       <c r="L35" s="4"/>
@@ -2216,7 +2216,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f>D3/2</f>
         <v>13.750000000000002</v>
       </c>
       <c r="E36" s="1">
@@ -2232,7 +2232,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2240,11 +2240,11 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>985.62500000000011</v>
       </c>
       <c r="L36" s="4"/>
@@ -2264,7 +2264,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>13.750000000000002</v>
       </c>
       <c r="E37" s="1">
@@ -2280,7 +2280,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2288,11 +2288,11 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>988.75000000000011</v>
       </c>
       <c r="L37" s="4"/>
@@ -2312,7 +2312,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>13.750000000000002</v>
       </c>
       <c r="E38" s="1">
@@ -2328,7 +2328,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2336,11 +2336,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>991.87500000000011</v>
       </c>
       <c r="L38" s="4"/>
@@ -2646,8 +2646,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="E4 E5:E38" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE462788-B4BF-44DE-94FE-1F63758D8697}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3F1461-92AE-4AE5-9D99-9BE1C2A9AF7F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J3" sqref="J3:J38"/>
     </sheetView>
   </sheetViews>
@@ -639,7 +639,7 @@
         <v>27.500000000000004</v>
       </c>
       <c r="E3" s="1">
-        <f>PRODUCT(D3,C3)</f>
+        <f>D3*C3</f>
         <v>1925.0000000000002</v>
       </c>
       <c r="F3" s="2">
@@ -656,11 +656,11 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>PRODUCT(I3,H3)</f>
+        <f>I3*H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f>SUM(J3,E3)</f>
+        <f>J3+E3</f>
         <v>1925.0000000000002</v>
       </c>
       <c r="L3" s="4"/>
@@ -684,7 +684,7 @@
         <v>27.500000000000004</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">PRODUCT(D4,C4)</f>
+        <f t="shared" ref="E4:E38" si="0">D4*C4</f>
         <v>1911.2500000000002</v>
       </c>
       <c r="F4" s="2">
@@ -704,11 +704,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">PRODUCT(I4,H4)</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">SUM(J4,E4)</f>
+        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
         <v>1911.2500000000002</v>
       </c>
       <c r="L4" s="4"/>

--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3F1461-92AE-4AE5-9D99-9BE1C2A9AF7F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -183,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
@@ -298,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -350,7 +344,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -544,18 +538,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -638,8 +632,8 @@
         <f>A1*1.1</f>
         <v>27.500000000000004</v>
       </c>
-      <c r="E3" s="1">
-        <f>D3*C3</f>
+      <c r="E3" s="5">
+        <f>C3*D3</f>
         <v>1925.0000000000002</v>
       </c>
       <c r="F3" s="2">
@@ -655,11 +649,11 @@
       <c r="I3" s="1">
         <v>10</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="5">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="5">
         <f>J3+E3</f>
         <v>1925.0000000000002</v>
       </c>
@@ -683,8 +677,8 @@
         <f>D3</f>
         <v>27.500000000000004</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">D4*C4</f>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>1911.2500000000002</v>
       </c>
       <c r="F4" s="2">
@@ -703,11 +697,11 @@
         <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="5">
         <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="5">
         <f t="shared" ref="K4:K38" si="3">J4+E4</f>
         <v>1911.2500000000002</v>
       </c>
@@ -731,7 +725,7 @@
         <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>27.500000000000004</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>1897.5000000000002</v>
       </c>
@@ -751,11 +745,11 @@
         <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="5">
         <f t="shared" si="3"/>
         <v>1897.5000000000002</v>
       </c>
@@ -779,7 +773,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>1883.7500000000002</v>
       </c>
@@ -799,11 +793,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="5">
         <f t="shared" si="3"/>
         <v>1883.7500000000002</v>
       </c>
@@ -827,7 +821,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>1870.0000000000002</v>
       </c>
@@ -847,11 +841,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="5">
         <f t="shared" si="3"/>
         <v>1870.0000000000002</v>
       </c>
@@ -875,7 +869,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>1856.2500000000002</v>
       </c>
@@ -895,11 +889,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="5">
         <f t="shared" si="3"/>
         <v>1856.2500000000002</v>
       </c>
@@ -923,7 +917,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>1842.5000000000002</v>
       </c>
@@ -943,11 +937,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="5">
         <f t="shared" si="3"/>
         <v>1842.5000000000002</v>
       </c>
@@ -971,7 +965,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>1828.7500000000002</v>
       </c>
@@ -991,11 +985,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="5">
         <f t="shared" si="3"/>
         <v>1828.7500000000002</v>
       </c>
@@ -1019,7 +1013,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>1815.0000000000002</v>
       </c>
@@ -1039,11 +1033,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="5">
         <f t="shared" si="3"/>
         <v>1815.0000000000002</v>
       </c>
@@ -1067,7 +1061,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>1801.2500000000002</v>
       </c>
@@ -1087,11 +1081,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J12" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="5">
         <f t="shared" si="3"/>
         <v>1811.2500000000002</v>
       </c>
@@ -1115,7 +1109,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>1787.5000000000002</v>
       </c>
@@ -1135,11 +1129,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="5">
         <f t="shared" si="3"/>
         <v>1807.5000000000002</v>
       </c>
@@ -1163,7 +1157,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>1773.7500000000002</v>
       </c>
@@ -1183,11 +1177,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="5">
         <f t="shared" si="3"/>
         <v>1803.7500000000002</v>
       </c>
@@ -1211,7 +1205,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>1760.0000000000002</v>
       </c>
@@ -1231,11 +1225,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="5">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="5">
         <f t="shared" si="3"/>
         <v>1800.0000000000002</v>
       </c>
@@ -1259,7 +1253,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>1746.2500000000002</v>
       </c>
@@ -1279,11 +1273,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="5">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="5">
         <f t="shared" si="3"/>
         <v>1796.2500000000002</v>
       </c>
@@ -1307,7 +1301,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>1732.5000000000002</v>
       </c>
@@ -1327,11 +1321,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="5">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="5">
         <f t="shared" si="3"/>
         <v>1792.5000000000002</v>
       </c>
@@ -1355,7 +1349,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>1718.7500000000002</v>
       </c>
@@ -1375,11 +1369,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="5">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="5">
         <f t="shared" si="3"/>
         <v>1788.7500000000002</v>
       </c>
@@ -1403,7 +1397,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>1705.0000000000002</v>
       </c>
@@ -1423,11 +1417,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="5">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="5">
         <f t="shared" si="3"/>
         <v>1785.0000000000002</v>
       </c>
@@ -1451,7 +1445,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>1691.2500000000002</v>
       </c>
@@ -1471,11 +1465,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="5">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="5">
         <f t="shared" si="3"/>
         <v>1781.2500000000002</v>
       </c>
@@ -1499,7 +1493,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>1677.5000000000002</v>
       </c>
@@ -1519,11 +1513,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="5">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="5">
         <f t="shared" si="3"/>
         <v>1777.5000000000002</v>
       </c>
@@ -1547,7 +1541,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>1663.7500000000002</v>
       </c>
@@ -1567,11 +1561,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="5">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="5">
         <f t="shared" si="3"/>
         <v>1773.7500000000002</v>
       </c>
@@ -1595,7 +1589,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="5">
         <f t="shared" si="0"/>
         <v>1650.0000000000002</v>
       </c>
@@ -1615,11 +1609,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="5">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="5">
         <f t="shared" si="3"/>
         <v>1770.0000000000002</v>
       </c>
@@ -1643,7 +1637,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="5">
         <f t="shared" si="0"/>
         <v>1636.2500000000002</v>
       </c>
@@ -1663,11 +1657,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="5">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="5">
         <f t="shared" si="3"/>
         <v>1766.2500000000002</v>
       </c>
@@ -1691,7 +1685,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="5">
         <f t="shared" si="0"/>
         <v>1622.5000000000002</v>
       </c>
@@ -1711,11 +1705,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="5">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="5">
         <f t="shared" si="3"/>
         <v>1762.5000000000002</v>
       </c>
@@ -1739,7 +1733,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="5">
         <f t="shared" si="0"/>
         <v>1608.7500000000002</v>
       </c>
@@ -1759,11 +1753,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="5">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="5">
         <f t="shared" si="3"/>
         <v>1758.7500000000002</v>
       </c>
@@ -1787,7 +1781,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="5">
         <f t="shared" si="0"/>
         <v>1595.0000000000002</v>
       </c>
@@ -1807,11 +1801,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="5">
         <f t="shared" si="3"/>
         <v>1755.0000000000002</v>
       </c>
@@ -1835,7 +1829,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="5">
         <f t="shared" si="0"/>
         <v>1581.2500000000002</v>
       </c>
@@ -1855,11 +1849,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="5">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="5">
         <f t="shared" si="3"/>
         <v>1751.2500000000002</v>
       </c>
@@ -1883,7 +1877,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="5">
         <f t="shared" si="0"/>
         <v>1567.5000000000002</v>
       </c>
@@ -1903,11 +1897,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="5">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="5">
         <f t="shared" si="3"/>
         <v>1747.5000000000002</v>
       </c>
@@ -1931,7 +1925,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="5">
         <f t="shared" si="0"/>
         <v>1553.7500000000002</v>
       </c>
@@ -1951,11 +1945,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="5">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="5">
         <f t="shared" si="3"/>
         <v>1743.7500000000002</v>
       </c>
@@ -1979,7 +1973,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="5">
         <f t="shared" si="0"/>
         <v>1540.0000000000002</v>
       </c>
@@ -1999,11 +1993,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="5">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="5">
         <f t="shared" si="3"/>
         <v>1740.0000000000002</v>
       </c>
@@ -2027,7 +2021,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="5">
         <f t="shared" si="0"/>
         <v>1526.2500000000002</v>
       </c>
@@ -2047,11 +2041,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="5">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="5">
         <f t="shared" si="3"/>
         <v>1736.2500000000002</v>
       </c>
@@ -2075,7 +2069,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="5">
         <f t="shared" si="0"/>
         <v>1512.5000000000002</v>
       </c>
@@ -2095,11 +2089,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="5">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="5">
         <f t="shared" si="3"/>
         <v>1732.5000000000002</v>
       </c>
@@ -2123,7 +2117,7 @@
         <f t="shared" si="6"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="5">
         <f t="shared" si="0"/>
         <v>1498.7500000000002</v>
       </c>
@@ -2143,11 +2137,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="5">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="5">
         <f t="shared" si="3"/>
         <v>1728.7500000000002</v>
       </c>
@@ -2171,7 +2165,7 @@
         <f>D3/2</f>
         <v>13.750000000000002</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="5">
         <f t="shared" si="0"/>
         <v>742.50000000000011</v>
       </c>
@@ -2191,11 +2185,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="5">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="5">
         <f t="shared" si="3"/>
         <v>982.50000000000011</v>
       </c>
@@ -2219,7 +2213,7 @@
         <f>D3/2</f>
         <v>13.750000000000002</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="5">
         <f t="shared" si="0"/>
         <v>735.62500000000011</v>
       </c>
@@ -2239,11 +2233,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="5">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="5">
         <f t="shared" si="3"/>
         <v>985.62500000000011</v>
       </c>
@@ -2267,7 +2261,7 @@
         <f>D3/2</f>
         <v>13.750000000000002</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="5">
         <f t="shared" si="0"/>
         <v>728.75000000000011</v>
       </c>
@@ -2287,11 +2281,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="5">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="5">
         <f t="shared" si="3"/>
         <v>988.75000000000011</v>
       </c>
@@ -2315,7 +2309,7 @@
         <f>D3/2</f>
         <v>13.750000000000002</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="5">
         <f t="shared" si="0"/>
         <v>721.87500000000011</v>
       </c>
@@ -2335,11 +2329,11 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="5">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="5">
         <f t="shared" si="3"/>
         <v>991.87500000000011</v>
       </c>
@@ -2646,5 +2640,8 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="E4:E34" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/LR3/table_1_25.xlsx
+++ b/LR3/table_1_25.xlsx
@@ -1,16 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91466EDC-91AF-433E-809E-C2AC6C75F3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -177,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
@@ -538,31 +554,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" customWidth="1"/>
-    <col min="10" max="11" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+    <col min="10" max="11" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>25</v>
       </c>
@@ -580,7 +596,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -618,7 +634,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -650,18 +666,18 @@
         <v>10</v>
       </c>
       <c r="J3" s="5">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="5">
-        <f>J3+E3</f>
+        <f>E3+J3</f>
         <v>1925.0000000000002</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -698,18 +714,18 @@
         <v>10</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>1911.2500000000002</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
@@ -757,7 +773,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -805,7 +821,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -853,7 +869,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -901,7 +917,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -949,7 +965,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -997,7 +1013,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -1045,7 +1061,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1093,7 +1109,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1141,7 +1157,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1189,7 +1205,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1237,7 +1253,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -1285,7 +1301,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -1333,7 +1349,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -1381,7 +1397,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -1429,7 +1445,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1477,7 +1493,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1525,7 +1541,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -1573,7 +1589,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1621,7 +1637,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1669,7 +1685,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1717,7 +1733,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -1765,7 +1781,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -1813,7 +1829,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -1861,7 +1877,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -1909,7 +1925,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -1957,7 +1973,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -2005,7 +2021,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -2053,7 +2069,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -2101,7 +2117,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -2149,7 +2165,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -2197,7 +2213,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -2245,7 +2261,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -2293,7 +2309,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -2341,7 +2357,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2357,7 +2373,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>44</v>
@@ -2378,7 +2394,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>41</v>
@@ -2399,7 +2415,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>42</v>
@@ -2420,7 +2436,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>43</v>
@@ -2441,7 +2457,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2457,7 +2473,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2473,7 +2489,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2489,7 +2505,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2505,7 +2521,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2521,7 +2537,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2537,7 +2553,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2553,7 +2569,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2569,7 +2585,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2585,7 +2601,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2601,7 +2617,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2617,7 +2633,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
